--- a/report_khach_hang/Danh sách khách hàng .xlsx
+++ b/report_khach_hang/Danh sách khách hàng .xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H276"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,10 +485,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -504,25 +502,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0825707451</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -538,25 +534,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v/>
       </c>
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0971073757</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -572,25 +564,21 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v/>
       </c>
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0762865707</t>
-        </is>
+      <c r="F5" t="n">
+        <v/>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -606,11 +594,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +611,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,23 +628,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -672,11 +662,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -687,10 +677,8 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F8" t="n">
+        <v/>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -706,11 +694,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -738,11 +726,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -753,10 +741,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -772,17 +758,15 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pola</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v/>
       </c>
       <c r="E11" t="n">
         <v/>
@@ -804,11 +788,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -821,7 +805,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -838,16 +822,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -855,7 +839,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -872,16 +856,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -889,7 +873,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -906,23 +890,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -938,23 +924,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="n">
-        <v/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -970,16 +958,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1002,11 +990,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1017,8 +1005,10 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="n">
-        <v/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1034,11 +1024,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1066,11 +1056,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1081,8 +1071,10 @@
       <c r="E20" t="n">
         <v/>
       </c>
-      <c r="F20" t="n">
-        <v/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G20" t="n">
         <v/>
@@ -1098,11 +1090,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1130,11 +1122,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1147,7 +1139,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0967039154</t>
+          <t>0852054955</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1164,16 +1156,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1181,7 +1173,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0852054955</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1198,21 +1190,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phan </t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v/>
+          <t>Đặng thị hồng đào</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0855677756</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1228,25 +1224,23 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0934108896</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1262,16 +1256,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1294,25 +1288,23 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F27" t="n">
+        <v/>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1328,15 +1320,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v/>
+          <t xml:space="preserve">chị trúc </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v/>
@@ -1358,25 +1352,23 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F29" t="n">
+        <v/>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1392,16 +1384,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1424,25 +1416,23 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1458,11 +1448,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1475,7 +1465,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1492,11 +1482,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1509,7 +1499,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1526,25 +1516,21 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Phan </t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v/>
       </c>
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1560,11 +1546,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1575,8 +1561,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1592,11 +1580,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1607,10 +1595,8 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F36" t="n">
+        <v/>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1626,11 +1612,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1641,8 +1627,10 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1658,25 +1646,21 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v/>
       </c>
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1692,21 +1676,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh Hậu </t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v/>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0975352074</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1722,11 +1710,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1737,10 +1725,8 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1756,16 +1742,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1773,7 +1759,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1790,16 +1776,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1807,7 +1793,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1824,16 +1810,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1841,7 +1827,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1858,16 +1844,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1875,7 +1861,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -1892,33 +1878,29 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
       </c>
       <c r="G45" t="n">
         <v/>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H45" t="n">
+        <v/>
       </c>
     </row>
     <row r="46">
@@ -1928,11 +1910,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1945,7 +1927,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1962,11 +1944,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1977,10 +1959,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0974646251</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -1996,11 +1976,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2013,7 +1993,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2030,25 +2010,21 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Anh Hậu </t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v/>
       </c>
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0936335226</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2064,11 +2040,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2081,7 +2057,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2098,16 +2074,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2115,7 +2091,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2132,21 +2108,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>em na</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v/>
+          <t>Phan Thị Cẩm Nhung</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0786942575</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2162,23 +2142,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0901099987</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2194,23 +2176,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0918667208</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2226,11 +2210,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2241,14 +2225,18 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0909903397</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
       </c>
-      <c r="H55" t="n">
-        <v/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2258,23 +2246,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0907643256</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2290,23 +2280,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="n">
-        <v/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0974646251</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2322,23 +2314,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="n">
-        <v/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0868586369</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2354,23 +2348,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2386,23 +2382,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="n">
-        <v/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2418,23 +2416,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="n">
-        <v/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0768862580</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2450,17 +2450,15 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>chị Na</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>em na</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v/>
       </c>
       <c r="E62" t="n">
         <v/>
@@ -2482,11 +2480,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2514,11 +2512,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2546,11 +2544,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2578,11 +2576,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2593,10 +2591,8 @@
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F66" t="n">
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2612,11 +2608,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2644,11 +2640,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2676,25 +2672,23 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0845450305</t>
-        </is>
+      <c r="F69" t="n">
+        <v/>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -2710,16 +2704,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -2742,25 +2736,23 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F71" t="n">
+        <v/>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -2776,25 +2768,23 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F72" t="n">
+        <v/>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -2810,25 +2800,23 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v/>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0876956340</t>
-        </is>
+      <c r="F73" t="n">
+        <v/>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -2844,15 +2832,17 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v/>
+          <t>chị thuỳ</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E74" t="n">
         <v/>
@@ -2874,25 +2864,23 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0582038580</t>
-        </is>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2908,16 +2896,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2925,7 +2913,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2942,25 +2930,23 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0833644489</t>
-        </is>
+      <c r="F77" t="n">
+        <v/>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -2976,25 +2962,23 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0918877304</t>
-        </is>
+      <c r="F78" t="n">
+        <v/>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3010,16 +2994,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3027,7 +3011,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3044,25 +3028,23 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>0906291291</t>
-        </is>
+      <c r="F80" t="n">
+        <v/>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3078,16 +3060,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3095,7 +3077,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3112,23 +3094,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0939268869</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3144,16 +3128,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3161,7 +3145,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0964945901</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3178,25 +3162,21 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Thai kim hiếu</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v/>
       </c>
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F84" t="n">
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3212,16 +3192,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3229,7 +3209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3246,11 +3226,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3263,7 +3243,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3280,11 +3260,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3295,8 +3275,10 @@
       <c r="E87" t="n">
         <v/>
       </c>
-      <c r="F87" t="n">
-        <v/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0833644489</t>
+        </is>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -3312,16 +3294,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3329,7 +3311,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3346,16 +3328,16 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -3363,7 +3345,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3380,16 +3362,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3397,7 +3379,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3414,16 +3396,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3431,7 +3413,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3448,25 +3430,23 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>0383095255</t>
-        </is>
+      <c r="F92" t="n">
+        <v/>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -3482,16 +3462,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3499,7 +3479,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3516,16 +3496,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3533,7 +3513,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3550,16 +3530,16 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3567,7 +3547,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -3584,11 +3564,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3601,7 +3581,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3618,11 +3598,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3633,10 +3613,8 @@
       <c r="E97" t="n">
         <v/>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>0797571132</t>
-        </is>
+      <c r="F97" t="n">
+        <v/>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -3652,16 +3630,16 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3669,7 +3647,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -3686,16 +3664,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3703,7 +3681,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G99" t="n">
@@ -3720,24 +3698,24 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -3754,23 +3732,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v/>
       </c>
-      <c r="F101" t="n">
-        <v/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0939273533</t>
+        </is>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -3786,16 +3766,16 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3803,7 +3783,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -3820,33 +3800,31 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G103" t="n">
         <v/>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H103" t="n">
+        <v/>
       </c>
     </row>
     <row r="104">
@@ -3856,11 +3834,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3873,7 +3851,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -3890,11 +3868,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3907,7 +3885,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -3924,16 +3902,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3941,7 +3919,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -3958,16 +3936,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3975,7 +3953,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -3992,16 +3970,16 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4009,7 +3987,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4026,16 +4004,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4043,7 +4021,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4060,21 +4038,25 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ngọc huyền</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v/>
+          <t>sơn thị chuol</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E110" t="n">
-        <v/>
-      </c>
-      <c r="F110" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G110" t="n">
         <v/>
@@ -4090,11 +4072,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4105,10 +4087,8 @@
       <c r="E111" t="n">
         <v/>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>0376680568</t>
-        </is>
+      <c r="F111" t="n">
+        <v/>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4124,16 +4104,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4141,7 +4121,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4158,31 +4138,33 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G113" t="n">
         <v/>
       </c>
-      <c r="H113" t="n">
-        <v/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -4192,11 +4174,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4209,7 +4191,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -4226,11 +4208,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4243,7 +4225,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4260,11 +4242,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4277,7 +4259,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -4294,16 +4276,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4311,7 +4293,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -4328,16 +4310,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4345,7 +4327,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4362,11 +4344,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4377,8 +4359,10 @@
       <c r="E119" t="n">
         <v/>
       </c>
-      <c r="F119" t="n">
-        <v/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -4394,25 +4378,21 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>ngọc huyền</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v/>
       </c>
       <c r="E120" t="n">
         <v/>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>0982030044</t>
-        </is>
+      <c r="F120" t="n">
+        <v/>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -4428,23 +4408,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E121" t="n">
         <v/>
       </c>
-      <c r="F121" t="n">
-        <v/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0376680568</t>
+        </is>
       </c>
       <c r="G121" t="n">
         <v/>
@@ -4460,11 +4442,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4475,8 +4457,10 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="n">
-        <v/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0364212994</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -4492,11 +4476,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4507,8 +4491,10 @@
       <c r="E123" t="n">
         <v/>
       </c>
-      <c r="F123" t="n">
-        <v/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0939773382</t>
+        </is>
       </c>
       <c r="G123" t="n">
         <v/>
@@ -4524,11 +4510,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4539,8 +4525,10 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="n">
-        <v/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0762777862</t>
+        </is>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -4556,11 +4544,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4571,8 +4559,10 @@
       <c r="E125" t="n">
         <v/>
       </c>
-      <c r="F125" t="n">
-        <v/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G125" t="n">
         <v/>
@@ -4588,11 +4578,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4603,8 +4593,10 @@
       <c r="E126" t="n">
         <v/>
       </c>
-      <c r="F126" t="n">
-        <v/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G126" t="n">
         <v/>
@@ -4620,11 +4612,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4635,8 +4627,10 @@
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="n">
-        <v/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -4652,11 +4646,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4667,8 +4661,10 @@
       <c r="E128" t="n">
         <v/>
       </c>
-      <c r="F128" t="n">
-        <v/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G128" t="n">
         <v/>
@@ -4684,16 +4680,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4716,11 +4712,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4731,8 +4727,10 @@
       <c r="E130" t="n">
         <v/>
       </c>
-      <c r="F130" t="n">
-        <v/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G130" t="n">
         <v/>
@@ -4748,15 +4746,17 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>dsfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v/>
+          <t>Lê Thị Hạnh Quyên</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E131" t="n">
         <v/>
@@ -4778,31 +4778,29 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v/>
+          <t>Kim Ngân</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E132" t="n">
-        <v>86302000734</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F132" t="n">
+        <v/>
       </c>
       <c r="G132" t="n">
         <v/>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180C </t>
-        </is>
+      <c r="H132" t="n">
+        <v/>
       </c>
     </row>
     <row r="133">
@@ -4812,33 +4810,29 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyễn ngọc huyền </t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v/>
+          <t>Nguyễn Hồng Tơ</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E133" t="n">
-        <v>1082839229928</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>0326665812</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Địa chỉ chi tiết </t>
-        </is>
+        <v/>
+      </c>
+      <c r="F133" t="n">
+        <v/>
+      </c>
+      <c r="G133" t="n">
+        <v/>
+      </c>
+      <c r="H133" t="n">
+        <v/>
       </c>
     </row>
     <row r="134">
@@ -4848,31 +4842,29 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Nguyễn hữu quang</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v/>
+          <t>Lữ Hoài Thơ</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E134" t="n">
-        <v>1201023299</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>0326665814</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F134" t="n">
+        <v/>
       </c>
       <c r="G134" t="n">
         <v/>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hà nội </t>
-        </is>
+      <c r="H134" t="n">
+        <v/>
       </c>
     </row>
     <row r="135">
@@ -4882,23 +4874,23 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Chị Vân</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v/>
+          <t>Trần Thị Hồng Cẩm</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E135" t="n">
         <v/>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>0385919853</t>
-        </is>
+      <c r="F135" t="n">
+        <v/>
       </c>
       <c r="G135" t="n">
         <v/>
@@ -4914,16 +4906,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4946,16 +4938,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4978,25 +4970,23 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E138" t="n">
         <v/>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F138" t="n">
+        <v/>
       </c>
       <c r="G138" t="n">
         <v/>
@@ -5012,16 +5002,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5044,16 +5034,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -5076,17 +5066,15 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>dsfsdfsdf</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v/>
       </c>
       <c r="E141" t="n">
         <v/>
@@ -5108,29 +5096,31 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>em thuý</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn Thị Lan</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v/>
       </c>
       <c r="E142" t="n">
-        <v/>
-      </c>
-      <c r="F142" t="n">
-        <v/>
+        <v>86302000734</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0898833566</t>
+        </is>
       </c>
       <c r="G142" t="n">
         <v/>
       </c>
-      <c r="H142" t="n">
-        <v/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180C </t>
+        </is>
       </c>
     </row>
     <row r="143">
@@ -5140,29 +5130,33 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Nguyễn ngọc huyền </t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v/>
       </c>
       <c r="E143" t="n">
-        <v/>
-      </c>
-      <c r="F143" t="n">
-        <v/>
-      </c>
-      <c r="G143" t="n">
-        <v/>
-      </c>
-      <c r="H143" t="n">
-        <v/>
+        <v>1082839229928</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0326665812</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Địa chỉ chi tiết </t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -5172,29 +5166,31 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn hữu quang</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v/>
       </c>
       <c r="E144" t="n">
-        <v/>
-      </c>
-      <c r="F144" t="n">
-        <v/>
+        <v>1201023299</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0326665814</t>
+        </is>
       </c>
       <c r="G144" t="n">
         <v/>
       </c>
-      <c r="H144" t="n">
-        <v/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hà nội </t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -5204,23 +5200,23 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Chị Vân</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v/>
       </c>
       <c r="E145" t="n">
         <v/>
       </c>
-      <c r="F145" t="n">
-        <v/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0385919853</t>
+        </is>
       </c>
       <c r="G145" t="n">
         <v/>
@@ -5236,16 +5232,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5268,11 +5264,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5300,11 +5296,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5315,8 +5311,10 @@
       <c r="E148" t="n">
         <v/>
       </c>
-      <c r="F148" t="n">
-        <v/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G148" t="n">
         <v/>
@@ -5332,11 +5330,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5347,10 +5345,8 @@
       <c r="E149" t="n">
         <v/>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F149" t="n">
+        <v/>
       </c>
       <c r="G149" t="n">
         <v/>
@@ -5366,11 +5362,11 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5398,16 +5394,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5430,16 +5426,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5462,16 +5458,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5494,16 +5490,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5526,16 +5522,16 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -5558,16 +5554,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5590,16 +5586,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5622,16 +5618,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5654,23 +5650,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E159" t="n">
         <v/>
       </c>
-      <c r="F159" t="n">
-        <v/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G159" t="n">
         <v/>
@@ -5686,16 +5684,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5718,11 +5716,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5750,16 +5748,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5782,16 +5780,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5814,16 +5812,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5846,16 +5844,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5878,16 +5876,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5910,16 +5908,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5942,16 +5940,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -5974,16 +5972,16 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -6006,16 +6004,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -6038,16 +6036,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6070,11 +6068,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6102,11 +6100,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6134,11 +6132,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6166,11 +6164,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6198,11 +6196,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6230,11 +6228,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6262,11 +6260,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6294,11 +6292,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6326,11 +6324,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6358,11 +6356,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6390,11 +6388,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6422,11 +6420,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6454,11 +6452,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6486,11 +6484,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6518,11 +6516,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6550,11 +6548,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6582,16 +6580,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -6614,16 +6612,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -6646,16 +6644,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6678,16 +6676,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6710,25 +6708,23 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v/>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F192" t="n">
+        <v/>
       </c>
       <c r="G192" t="n">
         <v/>
@@ -6744,25 +6740,23 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E193" t="n">
         <v/>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F193" t="n">
+        <v/>
       </c>
       <c r="G193" t="n">
         <v/>
@@ -6778,16 +6772,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -6810,16 +6804,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6842,16 +6836,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6874,25 +6868,23 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F197" t="n">
+        <v/>
       </c>
       <c r="G197" t="n">
         <v/>
@@ -6908,11 +6900,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6940,11 +6932,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6972,11 +6964,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7004,11 +6996,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7036,11 +7028,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7051,8 +7043,10 @@
       <c r="E202" t="n">
         <v/>
       </c>
-      <c r="F202" t="n">
-        <v/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G202" t="n">
         <v/>
@@ -7068,11 +7062,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7083,8 +7077,10 @@
       <c r="E203" t="n">
         <v/>
       </c>
-      <c r="F203" t="n">
-        <v/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G203" t="n">
         <v/>
@@ -7100,11 +7096,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -7132,11 +7128,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7164,11 +7160,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7196,11 +7192,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7209,10 +7205,12 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v/>
-      </c>
-      <c r="F207" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G207" t="n">
         <v/>
@@ -7228,11 +7226,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7243,10 +7241,8 @@
       <c r="E208" t="n">
         <v/>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F208" t="n">
+        <v/>
       </c>
       <c r="G208" t="n">
         <v/>
@@ -7262,11 +7258,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7294,11 +7290,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7326,11 +7322,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7358,11 +7354,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7390,11 +7386,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7422,11 +7418,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7454,11 +7450,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7469,10 +7465,8 @@
       <c r="E215" t="n">
         <v/>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F215" t="n">
+        <v/>
       </c>
       <c r="G215" t="n">
         <v/>
@@ -7488,11 +7482,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7520,11 +7514,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7552,11 +7546,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7567,8 +7561,10 @@
       <c r="E218" t="n">
         <v/>
       </c>
-      <c r="F218" t="n">
-        <v/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G218" t="n">
         <v/>
@@ -7584,11 +7580,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7616,11 +7612,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7648,11 +7644,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7680,11 +7676,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7712,11 +7708,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7744,11 +7740,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7776,11 +7772,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7791,8 +7787,10 @@
       <c r="E225" t="n">
         <v/>
       </c>
-      <c r="F225" t="n">
-        <v/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G225" t="n">
         <v/>
@@ -7808,11 +7806,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7840,11 +7838,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7872,11 +7870,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7904,11 +7902,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7919,10 +7917,8 @@
       <c r="E229" t="n">
         <v/>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F229" t="n">
+        <v/>
       </c>
       <c r="G229" t="n">
         <v/>
@@ -7938,11 +7934,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7970,11 +7966,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8002,11 +7998,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8034,11 +8030,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8066,11 +8062,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8098,11 +8094,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8130,11 +8126,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8162,16 +8158,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -8194,16 +8190,16 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -8226,23 +8222,25 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E239" t="n">
         <v/>
       </c>
-      <c r="F239" t="n">
-        <v/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G239" t="n">
         <v/>
@@ -8258,16 +8256,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -8290,16 +8288,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -8322,16 +8320,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -8354,16 +8352,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -8386,16 +8384,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -8418,16 +8416,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -8450,16 +8448,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -8482,11 +8480,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8514,11 +8512,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8546,11 +8544,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8578,25 +8576,23 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E250" t="n">
         <v/>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F250" t="n">
+        <v/>
       </c>
       <c r="G250" t="n">
         <v/>
@@ -8612,16 +8608,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -8644,16 +8640,16 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -8676,16 +8672,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -8708,16 +8704,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -8740,16 +8736,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -8772,16 +8768,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -8804,16 +8800,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -8836,16 +8832,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Em Kim</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -8868,16 +8864,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Chị Mai</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -8900,23 +8896,25 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E260" t="n">
         <v/>
       </c>
-      <c r="F260" t="n">
-        <v/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G260" t="n">
         <v/>
@@ -8932,16 +8930,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -8964,16 +8962,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -8996,16 +8994,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -9028,16 +9026,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -9060,16 +9058,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -9092,16 +9090,16 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -9124,16 +9122,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -9156,16 +9154,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Quan thị Hoa</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -9188,16 +9186,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Chị Mai</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -9220,11 +9218,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9252,11 +9250,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9284,11 +9282,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9316,11 +9314,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9348,11 +9346,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -9380,11 +9378,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9412,30 +9410,350 @@
         </is>
       </c>
       <c r="B276" t="n">
+        <v>51</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thị Cúc </t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v/>
+      </c>
+      <c r="F276" t="n">
+        <v/>
+      </c>
+      <c r="G276" t="n">
+        <v/>
+      </c>
+      <c r="H276" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>50</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v/>
+      </c>
+      <c r="F277" t="n">
+        <v/>
+      </c>
+      <c r="G277" t="n">
+        <v/>
+      </c>
+      <c r="H277" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>49</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anh tuyền </t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v/>
+      </c>
+      <c r="F278" t="n">
+        <v/>
+      </c>
+      <c r="G278" t="n">
+        <v/>
+      </c>
+      <c r="H278" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>48</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>chị Hà</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v/>
+      </c>
+      <c r="F279" t="n">
+        <v/>
+      </c>
+      <c r="G279" t="n">
+        <v/>
+      </c>
+      <c r="H279" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>47</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>C Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v/>
+      </c>
+      <c r="F280" t="n">
+        <v/>
+      </c>
+      <c r="G280" t="n">
+        <v/>
+      </c>
+      <c r="H280" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>46</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v/>
+      </c>
+      <c r="F281" t="n">
+        <v/>
+      </c>
+      <c r="G281" t="n">
+        <v/>
+      </c>
+      <c r="H281" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>45</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v/>
+      </c>
+      <c r="F282" t="n">
+        <v/>
+      </c>
+      <c r="G282" t="n">
+        <v/>
+      </c>
+      <c r="H282" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>44</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v/>
+      </c>
+      <c r="F283" t="n">
+        <v/>
+      </c>
+      <c r="G283" t="n">
+        <v/>
+      </c>
+      <c r="H283" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>43</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v/>
+      </c>
+      <c r="F284" t="n">
+        <v/>
+      </c>
+      <c r="G284" t="n">
+        <v/>
+      </c>
+      <c r="H284" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>42</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v/>
+      </c>
+      <c r="F285" t="n">
+        <v/>
+      </c>
+      <c r="G285" t="n">
+        <v/>
+      </c>
+      <c r="H285" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
         <v>41</v>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C286" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v/>
-      </c>
-      <c r="F276" t="inlineStr">
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v/>
+      </c>
+      <c r="F286" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G276" t="n">
-        <v/>
-      </c>
-      <c r="H276" t="n">
+      <c r="G286" t="n">
+        <v/>
+      </c>
+      <c r="H286" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng .xlsx
+++ b/report_khach_hang/Danh sách khách hàng .xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,11 +470,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,8 +485,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0347738370</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -502,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -517,8 +519,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>077721995</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -534,21 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v/>
+          <t>Lê Thị Kiều</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="n">
-        <v/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0907746583</t>
+        </is>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -564,21 +572,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v/>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v/>
       </c>
-      <c r="F5" t="n">
-        <v/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0325266431</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v/>
@@ -594,11 +606,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -611,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -628,25 +640,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0778162478</t>
-        </is>
+      <c r="F7" t="n">
+        <v/>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -662,11 +672,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -677,8 +687,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0917250314</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -694,11 +706,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -709,8 +721,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0786070121</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -726,23 +740,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0787197424</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -758,21 +774,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>na quy</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v/>
+          <t>Lê Thị Hiền</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v/>
       </c>
-      <c r="F11" t="n">
-        <v/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0966509605</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -788,16 +808,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -805,7 +825,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0969134464</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -822,11 +842,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -839,7 +859,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0825707451</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -856,11 +876,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -873,7 +893,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -890,16 +910,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -907,7 +927,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -924,16 +944,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -941,7 +961,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -958,11 +978,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -973,8 +993,10 @@
       <c r="E17" t="n">
         <v/>
       </c>
-      <c r="F17" t="n">
-        <v/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0912122976</t>
+        </is>
       </c>
       <c r="G17" t="n">
         <v/>
@@ -990,11 +1012,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1005,10 +1027,8 @@
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0337594599</t>
-        </is>
+      <c r="F18" t="n">
+        <v/>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1024,11 +1044,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1039,8 +1059,10 @@
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="n">
-        <v/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0983432263</t>
+        </is>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1056,16 +1078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1073,7 +1095,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>032781693</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1090,23 +1112,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0769326827</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1122,16 +1146,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1139,7 +1163,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1156,11 +1180,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1173,7 +1197,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1190,11 +1214,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1207,7 +1231,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1224,23 +1248,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="n">
-        <v/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0798048895</t>
+        </is>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1256,23 +1282,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0876359756</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1288,11 +1316,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1303,8 +1331,10 @@
       <c r="E27" t="n">
         <v/>
       </c>
-      <c r="F27" t="n">
-        <v/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G27" t="n">
         <v/>
@@ -1320,23 +1350,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v/>
       </c>
-      <c r="F28" t="n">
-        <v/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1352,11 +1384,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1384,11 +1416,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1416,17 +1448,15 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v/>
       </c>
       <c r="E31" t="n">
         <v/>
@@ -1448,25 +1478,21 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v/>
       </c>
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1482,16 +1508,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1499,7 +1525,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0989649094</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1516,21 +1542,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phan </t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v/>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1546,25 +1576,23 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0934108896</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1580,16 +1608,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1612,25 +1640,23 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1646,11 +1672,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1676,16 +1702,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1693,7 +1719,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1710,11 +1736,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1725,8 +1751,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0825707451</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1742,11 +1770,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1759,7 +1787,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1776,16 +1804,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1793,7 +1821,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1810,16 +1838,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1827,7 +1855,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1844,25 +1872,23 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -1878,23 +1904,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -1910,25 +1938,23 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0865677896</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1944,23 +1970,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>032781693</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -1976,25 +2004,23 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2010,21 +2036,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh Hậu </t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v/>
+          <t>tạ thị nghĩa</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2040,16 +2070,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2057,7 +2087,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0852054955</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2074,16 +2104,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2091,7 +2121,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0855677756</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2108,25 +2138,23 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F52" t="n">
+        <v/>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2142,25 +2170,23 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0901099987</t>
-        </is>
+      <c r="F53" t="n">
+        <v/>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2176,25 +2202,23 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0918667208</t>
-        </is>
+      <c r="F54" t="n">
+        <v/>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2210,11 +2234,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2225,18 +2249,14 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0909903397</t>
-        </is>
+      <c r="F55" t="n">
+        <v/>
       </c>
       <c r="G55" t="n">
         <v/>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H55" t="n">
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -2246,25 +2266,23 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0907643256</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2280,25 +2298,23 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0974646251</t>
-        </is>
+      <c r="F57" t="n">
+        <v/>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2314,25 +2330,23 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0868586369</t>
-        </is>
+      <c r="F58" t="n">
+        <v/>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2348,16 +2362,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2365,7 +2379,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2382,16 +2396,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2399,7 +2413,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2416,25 +2430,21 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t xml:space="preserve">Phan </t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v/>
       </c>
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0768862580</t>
-        </is>
+      <c r="F61" t="n">
+        <v/>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2450,21 +2460,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>em na</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v/>
+          <t>Nguyễn Ngọc Hoà</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2480,16 +2494,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2512,23 +2526,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="n">
-        <v/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2544,17 +2560,15 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v/>
       </c>
       <c r="E65" t="n">
         <v/>
@@ -2576,23 +2590,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="n">
-        <v/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0975352074</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2608,16 +2624,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -2640,23 +2656,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="n">
-        <v/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0974370797</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2672,11 +2690,11 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2687,8 +2705,10 @@
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="n">
-        <v/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -2704,23 +2724,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="n">
-        <v/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0777448424</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -2736,11 +2758,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2751,8 +2773,10 @@
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="n">
-        <v/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -2768,16 +2792,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2800,23 +2824,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v/>
       </c>
-      <c r="F73" t="n">
-        <v/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0865677896</t>
+        </is>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -2832,16 +2858,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2864,23 +2890,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="n">
-        <v/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0986087371</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2896,25 +2924,21 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Anh Hậu </t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v/>
       </c>
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F76" t="n">
+        <v/>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -2930,23 +2954,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="n">
-        <v/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0799535184</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -2962,11 +2988,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2977,8 +3003,10 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0384362705</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -2994,11 +3022,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3011,7 +3039,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3028,11 +3056,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3043,8 +3071,10 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="n">
-        <v/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0901099987</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3060,11 +3090,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3077,7 +3107,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3094,16 +3124,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3111,14 +3141,16 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0909903397</t>
         </is>
       </c>
       <c r="G82" t="n">
         <v/>
       </c>
-      <c r="H82" t="n">
-        <v/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3128,16 +3160,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3145,7 +3177,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3162,21 +3194,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v/>
+          <t>Mộng Như Ý</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="n">
-        <v/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0974646251</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3192,16 +3228,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3209,7 +3245,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3226,16 +3262,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3243,7 +3279,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3260,11 +3296,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3277,7 +3313,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0888155952</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3294,16 +3330,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3311,7 +3347,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0768862580</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3328,25 +3364,21 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>em na</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v/>
       </c>
       <c r="E89" t="n">
         <v/>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>8947126536</t>
-        </is>
+      <c r="F89" t="n">
+        <v/>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -3362,25 +3394,23 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0906291291</t>
-        </is>
+      <c r="F90" t="n">
+        <v/>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3396,11 +3426,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3411,10 +3441,8 @@
       <c r="E91" t="n">
         <v/>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>0848708885</t>
-        </is>
+      <c r="F91" t="n">
+        <v/>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -3430,11 +3458,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3462,11 +3490,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3477,10 +3505,8 @@
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0964945901</t>
-        </is>
+      <c r="F93" t="n">
+        <v/>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -3496,11 +3522,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3511,10 +3537,8 @@
       <c r="E94" t="n">
         <v/>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F94" t="n">
+        <v/>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -3530,11 +3554,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3545,10 +3569,8 @@
       <c r="E95" t="n">
         <v/>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>0386084494</t>
-        </is>
+      <c r="F95" t="n">
+        <v/>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -3564,25 +3586,23 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v/>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>0916250690</t>
-        </is>
+      <c r="F96" t="n">
+        <v/>
       </c>
       <c r="G96" t="n">
         <v/>
@@ -3598,16 +3618,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3630,11 +3650,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3645,10 +3665,8 @@
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>0365658917</t>
-        </is>
+      <c r="F98" t="n">
+        <v/>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -3664,25 +3682,23 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>0985568838</t>
-        </is>
+      <c r="F99" t="n">
+        <v/>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -3698,25 +3714,23 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>0949625783</t>
-        </is>
+      <c r="F100" t="n">
+        <v/>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -3732,25 +3746,23 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E101" t="n">
         <v/>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F101" t="n">
+        <v/>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -3766,25 +3778,23 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E102" t="n">
         <v/>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>0383095255</t>
-        </is>
+      <c r="F102" t="n">
+        <v/>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -3800,16 +3810,16 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3817,7 +3827,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -3834,25 +3844,23 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v/>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>0968119924</t>
-        </is>
+      <c r="F104" t="n">
+        <v/>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -3868,25 +3876,23 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E105" t="n">
         <v/>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>0973442820</t>
-        </is>
+      <c r="F105" t="n">
+        <v/>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -3902,16 +3908,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3919,7 +3925,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -3936,11 +3942,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3951,10 +3957,8 @@
       <c r="E107" t="n">
         <v/>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>0797571132</t>
-        </is>
+      <c r="F107" t="n">
+        <v/>
       </c>
       <c r="G107" t="n">
         <v/>
@@ -3970,11 +3974,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3987,7 +3991,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -4004,11 +4008,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4021,7 +4025,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4038,24 +4042,24 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -4072,17 +4076,15 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>thuý vân</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Thai kim hiếu</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v/>
       </c>
       <c r="E111" t="n">
         <v/>
@@ -4104,11 +4106,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4121,7 +4123,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4138,33 +4140,31 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G113" t="n">
         <v/>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H113" t="n">
+        <v/>
       </c>
     </row>
     <row r="114">
@@ -4174,11 +4174,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -4208,11 +4208,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4242,16 +4242,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -4276,11 +4276,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -4310,16 +4310,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4344,25 +4344,23 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E119" t="n">
         <v/>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>0918665056</t>
-        </is>
+      <c r="F119" t="n">
+        <v/>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -4378,21 +4376,25 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ngọc huyền</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v/>
+          <t>lâm thanh trúc</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E120" t="n">
         <v/>
       </c>
-      <c r="F120" t="n">
-        <v/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0964945901</t>
+        </is>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -4408,11 +4410,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4425,7 +4427,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4442,16 +4444,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4459,7 +4461,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -4476,16 +4478,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4493,7 +4495,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4510,11 +4512,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4525,10 +4527,8 @@
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>0762777862</t>
-        </is>
+      <c r="F124" t="n">
+        <v/>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -4544,16 +4544,16 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -4578,16 +4578,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4595,7 +4595,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -4612,11 +4612,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -4646,11 +4646,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4680,23 +4680,25 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E129" t="n">
         <v/>
       </c>
-      <c r="F129" t="n">
-        <v/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0383095255</t>
+        </is>
       </c>
       <c r="G129" t="n">
         <v/>
@@ -4712,11 +4714,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4729,7 +4731,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -4746,11 +4748,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4761,8 +4763,10 @@
       <c r="E131" t="n">
         <v/>
       </c>
-      <c r="F131" t="n">
-        <v/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0968119924</t>
+        </is>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -4778,11 +4782,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4793,8 +4797,10 @@
       <c r="E132" t="n">
         <v/>
       </c>
-      <c r="F132" t="n">
-        <v/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0973442820</t>
+        </is>
       </c>
       <c r="G132" t="n">
         <v/>
@@ -4810,23 +4816,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E133" t="n">
         <v/>
       </c>
-      <c r="F133" t="n">
-        <v/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0949439889</t>
+        </is>
       </c>
       <c r="G133" t="n">
         <v/>
@@ -4842,11 +4850,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4857,8 +4865,10 @@
       <c r="E134" t="n">
         <v/>
       </c>
-      <c r="F134" t="n">
-        <v/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0797571132</t>
+        </is>
       </c>
       <c r="G134" t="n">
         <v/>
@@ -4874,11 +4884,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4889,8 +4899,10 @@
       <c r="E135" t="n">
         <v/>
       </c>
-      <c r="F135" t="n">
-        <v/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0799675368</t>
+        </is>
       </c>
       <c r="G135" t="n">
         <v/>
@@ -4906,11 +4918,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4921,8 +4933,10 @@
       <c r="E136" t="n">
         <v/>
       </c>
-      <c r="F136" t="n">
-        <v/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0868748958</t>
+        </is>
       </c>
       <c r="G136" t="n">
         <v/>
@@ -4938,23 +4952,25 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v/>
-      </c>
-      <c r="F137" t="n">
-        <v/>
+        <v>9417002720</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0374112377</t>
+        </is>
       </c>
       <c r="G137" t="n">
         <v/>
@@ -4970,17 +4986,15 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v/>
       </c>
       <c r="E138" t="n">
         <v/>
@@ -5002,23 +5016,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E139" t="n">
         <v/>
       </c>
-      <c r="F139" t="n">
-        <v/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0945832211</t>
+        </is>
       </c>
       <c r="G139" t="n">
         <v/>
@@ -5034,29 +5050,33 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v/>
-      </c>
-      <c r="F140" t="n">
-        <v/>
+        <v>94197013583</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0977825701</t>
+        </is>
       </c>
       <c r="G140" t="n">
         <v/>
       </c>
-      <c r="H140" t="n">
-        <v/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -5066,21 +5086,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>dsfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v/>
+          <t>Lâm Nhật Thái</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E141" t="n">
         <v/>
       </c>
-      <c r="F141" t="n">
-        <v/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0946327273</t>
+        </is>
       </c>
       <c r="G141" t="n">
         <v/>
@@ -5096,31 +5120,31 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v/>
+          <t>Nguyễn Mộng Phàn</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E142" t="n">
-        <v>86302000734</v>
+        <v/>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0898833566</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G142" t="n">
         <v/>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180C </t>
-        </is>
+      <c r="H142" t="n">
+        <v/>
       </c>
     </row>
     <row r="143">
@@ -5130,33 +5154,31 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyễn ngọc huyền </t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v/>
+          <t>Phan Mỹ Điền</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E143" t="n">
-        <v>1082839229928</v>
+        <v/>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0326665812</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Địa chỉ chi tiết </t>
-        </is>
+          <t>0847413423</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v/>
+      </c>
+      <c r="H143" t="n">
+        <v/>
       </c>
     </row>
     <row r="144">
@@ -5166,31 +5188,31 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nguyễn hữu quang</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v/>
+          <t>Chị Tâm</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E144" t="n">
-        <v>1201023299</v>
+        <v/>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0326665814</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G144" t="n">
         <v/>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hà nội </t>
-        </is>
+      <c r="H144" t="n">
+        <v/>
       </c>
     </row>
     <row r="145">
@@ -5200,22 +5222,24 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Chị Vân</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v/>
+          <t>Hồ thị Kim thoa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E145" t="n">
         <v/>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0385919853</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5232,23 +5256,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>chị lam</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E146" t="n">
         <v/>
       </c>
-      <c r="F146" t="n">
-        <v/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0918665056</t>
+        </is>
       </c>
       <c r="G146" t="n">
         <v/>
@@ -5264,17 +5290,15 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>ngọc huyền</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v/>
       </c>
       <c r="E147" t="n">
         <v/>
@@ -5296,11 +5320,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5313,7 +5337,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0376680568</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -5330,23 +5354,25 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E149" t="n">
         <v/>
       </c>
-      <c r="F149" t="n">
-        <v/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0364212994</t>
+        </is>
       </c>
       <c r="G149" t="n">
         <v/>
@@ -5362,23 +5388,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E150" t="n">
         <v/>
       </c>
-      <c r="F150" t="n">
-        <v/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0939773382</t>
+        </is>
       </c>
       <c r="G150" t="n">
         <v/>
@@ -5394,23 +5422,25 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E151" t="n">
         <v/>
       </c>
-      <c r="F151" t="n">
-        <v/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0762777862</t>
+        </is>
       </c>
       <c r="G151" t="n">
         <v/>
@@ -5426,23 +5456,25 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E152" t="n">
         <v/>
       </c>
-      <c r="F152" t="n">
-        <v/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G152" t="n">
         <v/>
@@ -5458,23 +5490,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E153" t="n">
         <v/>
       </c>
-      <c r="F153" t="n">
-        <v/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G153" t="n">
         <v/>
@@ -5490,23 +5524,25 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E154" t="n">
         <v/>
       </c>
-      <c r="F154" t="n">
-        <v/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G154" t="n">
         <v/>
@@ -5522,23 +5558,25 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E155" t="n">
         <v/>
       </c>
-      <c r="F155" t="n">
-        <v/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G155" t="n">
         <v/>
@@ -5554,16 +5592,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5586,23 +5624,25 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E157" t="n">
         <v/>
       </c>
-      <c r="F157" t="n">
-        <v/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G157" t="n">
         <v/>
@@ -5618,16 +5658,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5650,25 +5690,23 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E159" t="n">
         <v/>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F159" t="n">
+        <v/>
       </c>
       <c r="G159" t="n">
         <v/>
@@ -5684,16 +5722,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5716,16 +5754,16 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -5748,16 +5786,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5780,16 +5818,16 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5812,16 +5850,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5844,16 +5882,16 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -5876,16 +5914,16 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cẩm Tú</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5908,16 +5946,16 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Nguyễn Trí</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5940,17 +5978,15 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Em nga</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t>dsfsdfsdf</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v/>
       </c>
       <c r="E168" t="n">
         <v/>
@@ -5972,29 +6008,31 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t>Nguyễn Thị Lan</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v/>
       </c>
       <c r="E169" t="n">
-        <v/>
-      </c>
-      <c r="F169" t="n">
-        <v/>
+        <v>86302000734</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0898833566</t>
+        </is>
       </c>
       <c r="G169" t="n">
         <v/>
       </c>
-      <c r="H169" t="n">
-        <v/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180C </t>
+        </is>
       </c>
     </row>
     <row r="170">
@@ -6004,29 +6042,33 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t xml:space="preserve">Nguyễn ngọc huyền </t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v/>
       </c>
       <c r="E170" t="n">
-        <v/>
-      </c>
-      <c r="F170" t="n">
-        <v/>
-      </c>
-      <c r="G170" t="n">
-        <v/>
-      </c>
-      <c r="H170" t="n">
-        <v/>
+        <v>1082839229928</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0326665812</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Địa chỉ chi tiết </t>
+        </is>
       </c>
     </row>
     <row r="171">
@@ -6036,29 +6078,31 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>em bang</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t>Nguyễn hữu quang</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v/>
       </c>
       <c r="E171" t="n">
-        <v/>
-      </c>
-      <c r="F171" t="n">
-        <v/>
+        <v>1201023299</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0326665814</t>
+        </is>
       </c>
       <c r="G171" t="n">
         <v/>
       </c>
-      <c r="H171" t="n">
-        <v/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hà nội </t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -6068,23 +6112,23 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>bé bảy</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Chị Vân</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v/>
       </c>
       <c r="E172" t="n">
         <v/>
       </c>
-      <c r="F172" t="n">
-        <v/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0385919853</t>
+        </is>
       </c>
       <c r="G172" t="n">
         <v/>
@@ -6100,11 +6144,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6132,11 +6176,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6164,11 +6208,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6179,8 +6223,10 @@
       <c r="E175" t="n">
         <v/>
       </c>
-      <c r="F175" t="n">
-        <v/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G175" t="n">
         <v/>
@@ -6196,11 +6242,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6228,11 +6274,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6260,11 +6306,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6292,11 +6338,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6324,11 +6370,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6356,11 +6402,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6388,11 +6434,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6420,16 +6466,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -6452,11 +6498,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6484,11 +6530,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6516,11 +6562,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6531,8 +6577,10 @@
       <c r="E186" t="n">
         <v/>
       </c>
-      <c r="F186" t="n">
-        <v/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G186" t="n">
         <v/>
@@ -6548,11 +6596,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6580,16 +6628,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -6612,16 +6660,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -6644,16 +6692,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6676,16 +6724,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6708,16 +6756,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -6740,16 +6788,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6772,16 +6820,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -6804,16 +6852,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6836,16 +6884,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6868,16 +6916,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -6900,16 +6948,16 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -6932,16 +6980,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -6964,16 +7012,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -6996,16 +7044,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7028,25 +7076,23 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E202" t="n">
         <v/>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F202" t="n">
+        <v/>
       </c>
       <c r="G202" t="n">
         <v/>
@@ -7062,25 +7108,23 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E203" t="n">
         <v/>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F203" t="n">
+        <v/>
       </c>
       <c r="G203" t="n">
         <v/>
@@ -7096,16 +7140,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7128,16 +7172,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -7160,16 +7204,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7192,25 +7236,23 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F207" t="n">
+        <v/>
       </c>
       <c r="G207" t="n">
         <v/>
@@ -7226,16 +7268,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7258,16 +7300,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7290,16 +7332,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -7322,16 +7364,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -7354,16 +7396,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -7386,16 +7428,16 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -7418,16 +7460,16 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -7450,16 +7492,16 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -7482,16 +7524,16 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -7514,16 +7556,16 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -7546,25 +7588,23 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E218" t="n">
         <v/>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F218" t="n">
+        <v/>
       </c>
       <c r="G218" t="n">
         <v/>
@@ -7580,16 +7620,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7612,16 +7652,16 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -7644,16 +7684,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -7676,16 +7716,16 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -7708,16 +7748,16 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -7740,16 +7780,16 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -7772,11 +7812,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7787,10 +7827,8 @@
       <c r="E225" t="n">
         <v/>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F225" t="n">
+        <v/>
       </c>
       <c r="G225" t="n">
         <v/>
@@ -7806,11 +7844,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7838,11 +7876,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7870,11 +7908,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7902,11 +7940,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7917,8 +7955,10 @@
       <c r="E229" t="n">
         <v/>
       </c>
-      <c r="F229" t="n">
-        <v/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G229" t="n">
         <v/>
@@ -7934,11 +7974,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7949,8 +7989,10 @@
       <c r="E230" t="n">
         <v/>
       </c>
-      <c r="F230" t="n">
-        <v/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G230" t="n">
         <v/>
@@ -7966,11 +8008,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -7998,11 +8040,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8030,11 +8072,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8062,11 +8104,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8075,10 +8117,12 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v/>
-      </c>
-      <c r="F234" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G234" t="n">
         <v/>
@@ -8094,11 +8138,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8126,11 +8170,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8158,11 +8202,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8190,11 +8234,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8222,11 +8266,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8237,10 +8281,8 @@
       <c r="E239" t="n">
         <v/>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F239" t="n">
+        <v/>
       </c>
       <c r="G239" t="n">
         <v/>
@@ -8256,11 +8298,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8288,11 +8330,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8320,11 +8362,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8352,11 +8394,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8384,11 +8426,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8416,11 +8458,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8431,8 +8473,10 @@
       <c r="E245" t="n">
         <v/>
       </c>
-      <c r="F245" t="n">
-        <v/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G245" t="n">
         <v/>
@@ -8448,11 +8492,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8480,16 +8524,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -8512,16 +8556,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -8544,16 +8588,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -8576,16 +8620,16 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -8608,16 +8652,16 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -8640,23 +8684,25 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E252" t="n">
         <v/>
       </c>
-      <c r="F252" t="n">
-        <v/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G252" t="n">
         <v/>
@@ -8672,16 +8718,16 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -8704,16 +8750,16 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -8736,16 +8782,16 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -8768,16 +8814,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -8800,16 +8846,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -8832,16 +8878,16 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -8864,16 +8910,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -8896,25 +8942,23 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E260" t="n">
         <v/>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F260" t="n">
+        <v/>
       </c>
       <c r="G260" t="n">
         <v/>
@@ -8930,16 +8974,16 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -8962,16 +9006,16 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -8994,16 +9038,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -9026,16 +9070,16 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -9058,16 +9102,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -9090,23 +9134,25 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E266" t="n">
         <v/>
       </c>
-      <c r="F266" t="n">
-        <v/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G266" t="n">
         <v/>
@@ -9122,16 +9168,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -9154,16 +9200,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -9186,16 +9232,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Chị Mai</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -9218,11 +9264,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9250,11 +9296,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9282,11 +9328,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9314,11 +9360,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9346,16 +9392,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -9378,16 +9424,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -9410,16 +9456,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -9442,16 +9488,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -9474,16 +9520,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -9506,16 +9552,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -9538,16 +9584,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -9570,16 +9616,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -9602,16 +9648,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -9634,16 +9680,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -9666,16 +9712,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -9698,16 +9744,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Kim</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -9730,30 +9776,896 @@
         </is>
       </c>
       <c r="B286" t="n">
+        <v>68</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Trúc Thanh</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v/>
+      </c>
+      <c r="F286" t="n">
+        <v/>
+      </c>
+      <c r="G286" t="n">
+        <v/>
+      </c>
+      <c r="H286" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>67</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>C.Phượng</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v/>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v/>
+      </c>
+      <c r="H287" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>66</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>c.Phiên</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v/>
+      </c>
+      <c r="F288" t="n">
+        <v/>
+      </c>
+      <c r="G288" t="n">
+        <v/>
+      </c>
+      <c r="H288" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>65</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Đa Ra</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v/>
+      </c>
+      <c r="F289" t="n">
+        <v/>
+      </c>
+      <c r="G289" t="n">
+        <v/>
+      </c>
+      <c r="H289" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>64</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>c.Lan</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v/>
+      </c>
+      <c r="F290" t="n">
+        <v/>
+      </c>
+      <c r="G290" t="n">
+        <v/>
+      </c>
+      <c r="H290" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>63</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>C.Trinh</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v/>
+      </c>
+      <c r="F291" t="n">
+        <v/>
+      </c>
+      <c r="G291" t="n">
+        <v/>
+      </c>
+      <c r="H291" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>62</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Lan Phương</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v/>
+      </c>
+      <c r="F292" t="n">
+        <v/>
+      </c>
+      <c r="G292" t="n">
+        <v/>
+      </c>
+      <c r="H292" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>61</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>C.Hoành Ná</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v/>
+      </c>
+      <c r="F293" t="n">
+        <v/>
+      </c>
+      <c r="G293" t="n">
+        <v/>
+      </c>
+      <c r="H293" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>60</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Cô Nhung</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v/>
+      </c>
+      <c r="F294" t="n">
+        <v/>
+      </c>
+      <c r="G294" t="n">
+        <v/>
+      </c>
+      <c r="H294" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>59</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Quan thị Hoa</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v/>
+      </c>
+      <c r="F295" t="n">
+        <v/>
+      </c>
+      <c r="G295" t="n">
+        <v/>
+      </c>
+      <c r="H295" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>58</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Chị Mai</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v/>
+      </c>
+      <c r="F296" t="n">
+        <v/>
+      </c>
+      <c r="G296" t="n">
+        <v/>
+      </c>
+      <c r="H296" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>57</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Lê Thị Nhanh</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v/>
+      </c>
+      <c r="F297" t="n">
+        <v/>
+      </c>
+      <c r="G297" t="n">
+        <v/>
+      </c>
+      <c r="H297" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>56</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Mỹ lan</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v/>
+      </c>
+      <c r="F298" t="n">
+        <v/>
+      </c>
+      <c r="G298" t="n">
+        <v/>
+      </c>
+      <c r="H298" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>55</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Tường Vi</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v/>
+      </c>
+      <c r="F299" t="n">
+        <v/>
+      </c>
+      <c r="G299" t="n">
+        <v/>
+      </c>
+      <c r="H299" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>54</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Chị Đào</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v/>
+      </c>
+      <c r="F300" t="n">
+        <v/>
+      </c>
+      <c r="G300" t="n">
+        <v/>
+      </c>
+      <c r="H300" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>53</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Kim Cương</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v/>
+      </c>
+      <c r="F301" t="n">
+        <v/>
+      </c>
+      <c r="G301" t="n">
+        <v/>
+      </c>
+      <c r="H301" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>52</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Chú Hàn Quốc</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v/>
+      </c>
+      <c r="F302" t="n">
+        <v/>
+      </c>
+      <c r="G302" t="n">
+        <v/>
+      </c>
+      <c r="H302" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>51</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thị Cúc </t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v/>
+      </c>
+      <c r="F303" t="n">
+        <v/>
+      </c>
+      <c r="G303" t="n">
+        <v/>
+      </c>
+      <c r="H303" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>50</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v/>
+      </c>
+      <c r="F304" t="n">
+        <v/>
+      </c>
+      <c r="G304" t="n">
+        <v/>
+      </c>
+      <c r="H304" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>49</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anh tuyền </t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v/>
+      </c>
+      <c r="F305" t="n">
+        <v/>
+      </c>
+      <c r="G305" t="n">
+        <v/>
+      </c>
+      <c r="H305" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>48</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>chị Hà</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v/>
+      </c>
+      <c r="F306" t="n">
+        <v/>
+      </c>
+      <c r="G306" t="n">
+        <v/>
+      </c>
+      <c r="H306" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>47</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>C Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v/>
+      </c>
+      <c r="F307" t="n">
+        <v/>
+      </c>
+      <c r="G307" t="n">
+        <v/>
+      </c>
+      <c r="H307" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>46</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngọc Tuyền </t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v/>
+      </c>
+      <c r="F308" t="n">
+        <v/>
+      </c>
+      <c r="G308" t="n">
+        <v/>
+      </c>
+      <c r="H308" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>45</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v/>
+      </c>
+      <c r="F309" t="n">
+        <v/>
+      </c>
+      <c r="G309" t="n">
+        <v/>
+      </c>
+      <c r="H309" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>44</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v/>
+      </c>
+      <c r="F310" t="n">
+        <v/>
+      </c>
+      <c r="G310" t="n">
+        <v/>
+      </c>
+      <c r="H310" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>43</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v/>
+      </c>
+      <c r="F311" t="n">
+        <v/>
+      </c>
+      <c r="G311" t="n">
+        <v/>
+      </c>
+      <c r="H311" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>42</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v/>
+      </c>
+      <c r="F312" t="n">
+        <v/>
+      </c>
+      <c r="G312" t="n">
+        <v/>
+      </c>
+      <c r="H312" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
         <v>41</v>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v/>
-      </c>
-      <c r="F286" t="inlineStr">
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v/>
+      </c>
+      <c r="F313" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G286" t="n">
-        <v/>
-      </c>
-      <c r="H286" t="n">
+      <c r="G313" t="n">
+        <v/>
+      </c>
+      <c r="H313" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng .xlsx
+++ b/report_khach_hang/Danh sách khách hàng .xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +538,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,23 +640,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
-        <v/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0907746583</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v/>
@@ -672,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -689,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -706,16 +708,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -723,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -740,11 +742,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,10 +757,8 @@
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -791,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -808,16 +808,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -859,7 +859,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -876,11 +876,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -910,11 +910,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -944,16 +944,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -961,7 +961,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1012,23 +1012,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v/>
       </c>
-      <c r="F18" t="n">
-        <v/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0399381004</t>
+        </is>
       </c>
       <c r="G18" t="n">
         <v/>
@@ -1044,16 +1046,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1061,7 +1063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1078,11 +1080,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1095,7 +1097,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1112,25 +1114,23 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0769326827</t>
-        </is>
+      <c r="F21" t="n">
+        <v/>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1248,11 +1248,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1282,16 +1282,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1316,16 +1316,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1350,11 +1350,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1384,23 +1384,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v/>
       </c>
-      <c r="F29" t="n">
-        <v/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0876359756</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1416,11 +1418,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1431,8 +1433,10 @@
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="n">
-        <v/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1448,21 +1452,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v/>
+          <t>Lê Thị Tuyết Anh</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E31" t="n">
         <v/>
       </c>
-      <c r="F31" t="n">
-        <v/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G31" t="n">
         <v/>
@@ -1478,15 +1486,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v/>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E32" t="n">
         <v/>
@@ -1508,25 +1518,23 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0761880789</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1542,25 +1550,21 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v/>
       </c>
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0778162478</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1576,17 +1580,15 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v/>
       </c>
       <c r="E35" t="n">
         <v/>
@@ -1608,23 +1610,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0761880789</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1640,23 +1644,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1672,15 +1678,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>na quy</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v/>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v/>
@@ -1702,11 +1710,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1717,10 +1725,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1736,25 +1742,23 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0825707451</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1770,25 +1774,21 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v/>
       </c>
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0971073757</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -1838,11 +1838,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -1872,23 +1872,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="n">
-        <v/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -1904,16 +1906,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1921,7 +1923,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1938,23 +1940,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="n">
-        <v/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1970,25 +1974,23 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2004,11 +2006,11 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2019,8 +2021,10 @@
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="n">
-        <v/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2036,11 +2040,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2051,10 +2055,8 @@
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2070,11 +2072,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2087,7 +2089,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>032781693</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2104,25 +2106,23 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0855677756</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2138,11 +2138,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2153,8 +2153,10 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2170,11 +2172,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2185,8 +2187,10 @@
       <c r="E53" t="n">
         <v/>
       </c>
-      <c r="F53" t="n">
-        <v/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -2202,23 +2206,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0855677756</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2234,11 +2240,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2266,11 +2272,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2298,11 +2304,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2330,11 +2336,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2362,11 +2368,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2377,10 +2383,8 @@
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F59" t="n">
+        <v/>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2396,25 +2400,23 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v/>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0989649094</t>
-        </is>
+      <c r="F60" t="n">
+        <v/>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -2430,15 +2432,17 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phan </t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v/>
+          <t>nguyễn thị ánh tuyết</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E61" t="n">
         <v/>
@@ -2460,16 +2464,16 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2477,7 +2481,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2494,23 +2498,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0989649094</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2526,25 +2532,21 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Phan </t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v/>
       </c>
       <c r="E64" t="n">
         <v/>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F64" t="n">
+        <v/>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -2560,21 +2562,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v/>
+          <t>Nguyễn Ngọc Hoà</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="n">
-        <v/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2590,25 +2596,23 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F66" t="n">
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2624,11 +2628,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2639,8 +2643,10 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2656,25 +2662,21 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v/>
       </c>
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F68" t="n">
+        <v/>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2690,16 +2692,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2707,7 +2709,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -2724,25 +2726,23 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0777448424</t>
-        </is>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -2792,23 +2792,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E72" t="n">
         <v/>
       </c>
-      <c r="F72" t="n">
-        <v/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -2824,16 +2826,16 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2841,7 +2843,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2858,23 +2860,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E74" t="n">
         <v/>
       </c>
-      <c r="F74" t="n">
-        <v/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -2890,11 +2894,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2905,10 +2909,8 @@
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2924,21 +2926,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh Hậu </t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v/>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E76" t="n">
         <v/>
       </c>
-      <c r="F76" t="n">
-        <v/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0865677896</t>
+        </is>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -2954,11 +2960,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2969,10 +2975,8 @@
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F77" t="n">
+        <v/>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -2988,16 +2992,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3005,7 +3009,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3022,25 +3026,21 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Anh Hậu </t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v/>
       </c>
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3056,11 +3056,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3090,16 +3090,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3124,16 +3124,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3141,16 +3141,14 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G82" t="n">
         <v/>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H82" t="n">
+        <v/>
       </c>
     </row>
     <row r="83">
@@ -3160,11 +3158,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3177,7 +3175,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3194,11 +3192,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3211,7 +3209,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3228,16 +3226,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3245,14 +3243,16 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0909903397</t>
         </is>
       </c>
       <c r="G85" t="n">
         <v/>
       </c>
-      <c r="H85" t="n">
-        <v/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -3262,11 +3262,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3296,11 +3296,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3330,16 +3330,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -3364,21 +3364,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>em na</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v/>
+          <t>Trương Thị Thuỷ Tiên</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E89" t="n">
         <v/>
       </c>
-      <c r="F89" t="n">
-        <v/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -3394,23 +3398,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v/>
       </c>
-      <c r="F90" t="n">
-        <v/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -3426,23 +3432,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E91" t="n">
         <v/>
       </c>
-      <c r="F91" t="n">
-        <v/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0768862580</t>
+        </is>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -3458,17 +3466,15 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>em na</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v/>
       </c>
       <c r="E92" t="n">
         <v/>
@@ -3490,11 +3496,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3522,11 +3528,11 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3554,11 +3560,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3586,11 +3592,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3618,11 +3624,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3650,11 +3656,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3682,11 +3688,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3714,11 +3720,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3746,11 +3752,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3778,11 +3784,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3810,11 +3816,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3825,10 +3831,8 @@
       <c r="E103" t="n">
         <v/>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F103" t="n">
+        <v/>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -3844,11 +3848,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3876,11 +3880,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3908,16 +3912,16 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3925,7 +3929,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -3942,16 +3946,16 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3974,25 +3978,23 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E108" t="n">
         <v/>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F108" t="n">
+        <v/>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -4008,11 +4010,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4025,7 +4027,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4042,25 +4044,23 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E110" t="n">
         <v/>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>0876956340</t>
-        </is>
+      <c r="F110" t="n">
+        <v/>
       </c>
       <c r="G110" t="n">
         <v/>
@@ -4076,21 +4076,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v/>
+          <t>Lê Thị Bạch Tuyết</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E111" t="n">
         <v/>
       </c>
-      <c r="F111" t="n">
-        <v/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0772155826</t>
+        </is>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4106,16 +4110,16 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4123,7 +4127,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4140,11 +4144,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4157,7 +4161,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -4174,25 +4178,21 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Thai kim hiếu</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v/>
       </c>
       <c r="E114" t="n">
         <v/>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>0833644489</t>
-        </is>
+      <c r="F114" t="n">
+        <v/>
       </c>
       <c r="G114" t="n">
         <v/>
@@ -4208,16 +4208,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4242,16 +4242,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -4276,16 +4276,16 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -4310,16 +4310,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4344,11 +4344,11 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4359,8 +4359,10 @@
       <c r="E119" t="n">
         <v/>
       </c>
-      <c r="F119" t="n">
-        <v/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>8947126536</t>
+        </is>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -4376,16 +4378,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4393,7 +4395,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0964945901</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4410,11 +4412,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4427,7 +4429,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4444,11 +4446,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4459,10 +4461,8 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>0386084494</t>
-        </is>
+      <c r="F122" t="n">
+        <v/>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -4478,16 +4478,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4512,23 +4512,25 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E124" t="n">
         <v/>
       </c>
-      <c r="F124" t="n">
-        <v/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0326608620</t>
+        </is>
       </c>
       <c r="G124" t="n">
         <v/>
@@ -4544,11 +4546,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4561,7 +4563,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -4578,11 +4580,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4595,7 +4597,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -4612,11 +4614,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4627,10 +4629,8 @@
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>0949625783</t>
-        </is>
+      <c r="F127" t="n">
+        <v/>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -4646,16 +4646,16 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4680,16 +4680,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -4714,11 +4714,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -4748,11 +4748,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -4782,11 +4782,11 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -4816,16 +4816,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -4850,11 +4850,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -4884,11 +4884,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4918,16 +4918,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -4952,24 +4952,24 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -4986,21 +4986,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>thuý vân</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v/>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E138" t="n">
         <v/>
       </c>
-      <c r="F138" t="n">
-        <v/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0799675368</t>
+        </is>
       </c>
       <c r="G138" t="n">
         <v/>
@@ -5016,16 +5020,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5033,7 +5037,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -5050,11 +5054,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5063,20 +5067,18 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>94197013583</v>
+        <v>9417002720</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G140" t="n">
         <v/>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H140" t="n">
+        <v/>
       </c>
     </row>
     <row r="141">
@@ -5086,25 +5088,21 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v/>
       </c>
       <c r="E141" t="n">
         <v/>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>0946327273</t>
-        </is>
+      <c r="F141" t="n">
+        <v/>
       </c>
       <c r="G141" t="n">
         <v/>
@@ -5120,16 +5118,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5137,7 +5135,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -5154,31 +5152,33 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G143" t="n">
         <v/>
       </c>
-      <c r="H143" t="n">
-        <v/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -5188,16 +5188,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -5222,16 +5222,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5256,16 +5256,16 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -5290,21 +5290,25 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ngọc huyền</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v/>
+          <t>Chị Tâm</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E147" t="n">
         <v/>
       </c>
-      <c r="F147" t="n">
-        <v/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0396237229</t>
+        </is>
       </c>
       <c r="G147" t="n">
         <v/>
@@ -5320,16 +5324,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5337,7 +5341,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -5354,16 +5358,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -5371,7 +5375,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -5388,25 +5392,21 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>ngọc huyền</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v/>
       </c>
       <c r="E150" t="n">
         <v/>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>0939773382</t>
-        </is>
+      <c r="F150" t="n">
+        <v/>
       </c>
       <c r="G150" t="n">
         <v/>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0376680568</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -5456,11 +5456,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5473,7 +5473,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -5490,11 +5490,11 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -5524,11 +5524,11 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -5558,11 +5558,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -5592,23 +5592,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E156" t="n">
         <v/>
       </c>
-      <c r="F156" t="n">
-        <v/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G156" t="n">
         <v/>
@@ -5624,11 +5626,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5641,7 +5643,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -5658,11 +5660,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5673,8 +5675,10 @@
       <c r="E158" t="n">
         <v/>
       </c>
-      <c r="F158" t="n">
-        <v/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G158" t="n">
         <v/>
@@ -5690,16 +5694,16 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5722,11 +5726,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5737,8 +5741,10 @@
       <c r="E160" t="n">
         <v/>
       </c>
-      <c r="F160" t="n">
-        <v/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G160" t="n">
         <v/>
@@ -5754,11 +5760,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5786,11 +5792,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5818,11 +5824,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5850,11 +5856,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5882,11 +5888,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5914,11 +5920,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5946,11 +5952,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5978,15 +5984,17 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>dsfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v/>
+          <t>Thuỳ Nhiên</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E168" t="n">
         <v/>
@@ -6008,31 +6016,29 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v/>
+          <t>Cẩm Tú</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E169" t="n">
-        <v>86302000734</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F169" t="n">
+        <v/>
       </c>
       <c r="G169" t="n">
         <v/>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180C </t>
-        </is>
+      <c r="H169" t="n">
+        <v/>
       </c>
     </row>
     <row r="170">
@@ -6042,33 +6048,29 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyễn ngọc huyền </t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v/>
+          <t>Nguyễn Trí</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E170" t="n">
-        <v>1082839229928</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>0326665812</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Địa chỉ chi tiết </t>
-        </is>
+        <v/>
+      </c>
+      <c r="F170" t="n">
+        <v/>
+      </c>
+      <c r="G170" t="n">
+        <v/>
+      </c>
+      <c r="H170" t="n">
+        <v/>
       </c>
     </row>
     <row r="171">
@@ -6078,31 +6080,27 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Nguyễn hữu quang</t>
+          <t>dsfsdfsdf</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v/>
       </c>
       <c r="E171" t="n">
-        <v>1201023299</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>0326665814</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F171" t="n">
+        <v/>
       </c>
       <c r="G171" t="n">
         <v/>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hà nội </t>
-        </is>
+      <c r="H171" t="n">
+        <v/>
       </c>
     </row>
     <row r="172">
@@ -6112,29 +6110,31 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Chị Vân</t>
+          <t>Nguyễn Thị Lan</t>
         </is>
       </c>
       <c r="D172" t="n">
         <v/>
       </c>
       <c r="E172" t="n">
-        <v/>
+        <v>86302000734</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>0385919853</t>
+          <t>0898833566</t>
         </is>
       </c>
       <c r="G172" t="n">
         <v/>
       </c>
-      <c r="H172" t="n">
-        <v/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180C </t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -6144,29 +6144,33 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>chị lam</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Nguyễn ngọc huyền </t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v/>
       </c>
       <c r="E173" t="n">
-        <v/>
-      </c>
-      <c r="F173" t="n">
-        <v/>
-      </c>
-      <c r="G173" t="n">
-        <v/>
-      </c>
-      <c r="H173" t="n">
-        <v/>
+        <v>1082839229928</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0326665812</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Địa chỉ chi tiết </t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -6176,29 +6180,31 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn hữu quang</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v/>
       </c>
       <c r="E174" t="n">
-        <v/>
-      </c>
-      <c r="F174" t="n">
-        <v/>
+        <v>1201023299</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0326665814</t>
+        </is>
       </c>
       <c r="G174" t="n">
         <v/>
       </c>
-      <c r="H174" t="n">
-        <v/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hà nội </t>
+        </is>
       </c>
     </row>
     <row r="175">
@@ -6208,24 +6214,22 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Chị Vân</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v/>
       </c>
       <c r="E175" t="n">
         <v/>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0385919853</t>
         </is>
       </c>
       <c r="G175" t="n">
@@ -6242,11 +6246,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6274,11 +6278,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6306,11 +6310,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6321,8 +6325,10 @@
       <c r="E178" t="n">
         <v/>
       </c>
-      <c r="F178" t="n">
-        <v/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G178" t="n">
         <v/>
@@ -6338,11 +6344,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6370,11 +6376,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6402,11 +6408,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6434,11 +6440,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6466,16 +6472,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -6498,11 +6504,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6530,11 +6536,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6562,25 +6568,23 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E186" t="n">
         <v/>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F186" t="n">
+        <v/>
       </c>
       <c r="G186" t="n">
         <v/>
@@ -6596,11 +6600,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6628,16 +6632,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -6660,23 +6664,25 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v/>
       </c>
-      <c r="F189" t="n">
-        <v/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G189" t="n">
         <v/>
@@ -6692,16 +6698,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6724,11 +6730,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6756,11 +6762,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6788,11 +6794,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6820,11 +6826,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6852,11 +6858,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6884,11 +6890,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6916,11 +6922,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6948,11 +6954,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6980,16 +6986,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7012,16 +7018,16 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -7044,16 +7050,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7076,11 +7082,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7108,11 +7114,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7140,11 +7146,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -7172,11 +7178,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7204,11 +7210,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7236,11 +7242,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7268,11 +7274,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7300,11 +7306,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7332,11 +7338,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7364,11 +7370,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7396,11 +7402,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7428,11 +7434,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7460,11 +7466,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7492,11 +7498,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7524,11 +7530,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7556,11 +7562,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7588,11 +7594,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7620,11 +7626,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7652,11 +7658,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7684,11 +7690,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7716,11 +7722,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7748,11 +7754,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7780,11 +7786,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7812,16 +7818,16 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -7844,16 +7850,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -7876,16 +7882,16 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -7908,11 +7914,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7940,11 +7946,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7955,10 +7961,8 @@
       <c r="E229" t="n">
         <v/>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F229" t="n">
+        <v/>
       </c>
       <c r="G229" t="n">
         <v/>
@@ -7974,11 +7978,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -7989,10 +7993,8 @@
       <c r="E230" t="n">
         <v/>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F230" t="n">
+        <v/>
       </c>
       <c r="G230" t="n">
         <v/>
@@ -8008,11 +8010,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8040,11 +8042,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8055,8 +8057,10 @@
       <c r="E232" t="n">
         <v/>
       </c>
-      <c r="F232" t="n">
-        <v/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G232" t="n">
         <v/>
@@ -8072,11 +8076,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8087,8 +8091,10 @@
       <c r="E233" t="n">
         <v/>
       </c>
-      <c r="F233" t="n">
-        <v/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G233" t="n">
         <v/>
@@ -8104,11 +8110,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8117,12 +8123,10 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F234" t="n">
+        <v/>
       </c>
       <c r="G234" t="n">
         <v/>
@@ -8138,11 +8142,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8170,11 +8174,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8202,11 +8206,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8215,10 +8219,12 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v/>
-      </c>
-      <c r="F237" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G237" t="n">
         <v/>
@@ -8234,11 +8240,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8266,11 +8272,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8298,11 +8304,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8330,11 +8336,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8362,11 +8368,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8394,11 +8400,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8426,11 +8432,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8458,11 +8464,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8473,10 +8479,8 @@
       <c r="E245" t="n">
         <v/>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F245" t="n">
+        <v/>
       </c>
       <c r="G245" t="n">
         <v/>
@@ -8492,11 +8496,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8524,11 +8528,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8556,11 +8560,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8571,8 +8575,10 @@
       <c r="E248" t="n">
         <v/>
       </c>
-      <c r="F248" t="n">
-        <v/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G248" t="n">
         <v/>
@@ -8588,11 +8594,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8620,11 +8626,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8652,11 +8658,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8684,11 +8690,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8699,10 +8705,8 @@
       <c r="E252" t="n">
         <v/>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F252" t="n">
+        <v/>
       </c>
       <c r="G252" t="n">
         <v/>
@@ -8718,11 +8722,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8750,11 +8754,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8782,11 +8786,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8797,8 +8801,10 @@
       <c r="E255" t="n">
         <v/>
       </c>
-      <c r="F255" t="n">
-        <v/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G255" t="n">
         <v/>
@@ -8814,11 +8820,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8846,11 +8852,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8878,11 +8884,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8910,11 +8916,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8942,11 +8948,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8974,11 +8980,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9006,11 +9012,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9038,11 +9044,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9070,11 +9076,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9102,11 +9108,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9134,11 +9140,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -9149,10 +9155,8 @@
       <c r="E266" t="n">
         <v/>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F266" t="n">
+        <v/>
       </c>
       <c r="G266" t="n">
         <v/>
@@ -9168,11 +9172,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9200,11 +9204,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9232,11 +9236,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9247,8 +9251,10 @@
       <c r="E269" t="n">
         <v/>
       </c>
-      <c r="F269" t="n">
-        <v/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G269" t="n">
         <v/>
@@ -9264,11 +9270,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9296,11 +9302,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9328,11 +9334,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9360,11 +9366,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9392,16 +9398,16 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -9424,16 +9430,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -9456,16 +9462,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -9488,11 +9494,11 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -9520,11 +9526,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9552,11 +9558,11 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9584,11 +9590,11 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9616,11 +9622,11 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9648,11 +9654,11 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9680,11 +9686,11 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9712,11 +9718,11 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9744,11 +9750,11 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9776,11 +9782,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9808,25 +9814,23 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E287" t="n">
         <v/>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F287" t="n">
+        <v/>
       </c>
       <c r="G287" t="n">
         <v/>
@@ -9842,16 +9846,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Em Kim</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -9874,16 +9878,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -9906,11 +9910,11 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9921,8 +9925,10 @@
       <c r="E290" t="n">
         <v/>
       </c>
-      <c r="F290" t="n">
-        <v/>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G290" t="n">
         <v/>
@@ -9938,11 +9944,11 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9970,11 +9976,11 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10002,11 +10008,11 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10034,11 +10040,11 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10066,11 +10072,11 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10098,11 +10104,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Chị Mai</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -10130,16 +10136,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -10162,16 +10168,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Quan thị Hoa</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -10194,16 +10200,16 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Chị Mai</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -10226,11 +10232,11 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10258,11 +10264,11 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -10290,11 +10296,11 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -10322,11 +10328,11 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10354,11 +10360,11 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -10386,11 +10392,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -10418,11 +10424,11 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -10450,11 +10456,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -10482,11 +10488,11 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -10514,11 +10520,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -10546,11 +10552,11 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10578,11 +10584,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -10610,11 +10616,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10642,30 +10648,126 @@
         </is>
       </c>
       <c r="B313" t="n">
+        <v>44</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v/>
+      </c>
+      <c r="F313" t="n">
+        <v/>
+      </c>
+      <c r="G313" t="n">
+        <v/>
+      </c>
+      <c r="H313" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>43</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v/>
+      </c>
+      <c r="F314" t="n">
+        <v/>
+      </c>
+      <c r="G314" t="n">
+        <v/>
+      </c>
+      <c r="H314" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>42</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v/>
+      </c>
+      <c r="F315" t="n">
+        <v/>
+      </c>
+      <c r="G315" t="n">
+        <v/>
+      </c>
+      <c r="H315" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
         <v>41</v>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C316" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v/>
-      </c>
-      <c r="F313" t="inlineStr">
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v/>
+      </c>
+      <c r="F316" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G313" t="n">
-        <v/>
-      </c>
-      <c r="H313" t="n">
+      <c r="G316" t="n">
+        <v/>
+      </c>
+      <c r="H316" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng .xlsx
+++ b/report_khach_hang/Danh sách khách hàng .xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -487,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -555,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +640,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -708,16 +708,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -742,23 +742,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v/>
       </c>
-      <c r="F10" t="n">
-        <v/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0907746583</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -774,16 +776,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -791,7 +793,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -808,16 +810,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -825,7 +827,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -842,11 +844,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -857,10 +859,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0787197424</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -944,16 +944,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -961,7 +961,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -978,11 +978,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1012,11 +1012,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1080,16 +1080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1114,23 +1114,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0399381004</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1146,16 +1148,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1163,7 +1165,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1180,11 +1182,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1197,7 +1199,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1214,25 +1216,23 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0769326827</t>
-        </is>
+      <c r="F24" t="n">
+        <v/>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1282,16 +1282,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1316,16 +1316,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1350,11 +1350,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1384,16 +1384,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1418,16 +1418,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1486,23 +1486,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="n">
-        <v/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0876359756</t>
+        </is>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1518,11 +1520,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1533,8 +1535,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1550,21 +1554,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v/>
+          <t>Lê Thị Tuyết Anh</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E34" t="n">
         <v/>
       </c>
-      <c r="F34" t="n">
-        <v/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G34" t="n">
         <v/>
@@ -1580,15 +1588,17 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v/>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E35" t="n">
         <v/>
@@ -1610,25 +1620,23 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0761880789</t>
-        </is>
+      <c r="F36" t="n">
+        <v/>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1644,25 +1652,21 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v/>
       </c>
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0778162478</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1678,17 +1682,15 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v/>
       </c>
       <c r="E38" t="n">
         <v/>
@@ -1710,23 +1712,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0761880789</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1742,23 +1746,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1774,15 +1780,17 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>na quy</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v/>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E41" t="n">
         <v/>
@@ -1804,11 +1812,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1819,10 +1827,8 @@
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -1838,25 +1844,23 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v/>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0825707451</t>
-        </is>
+      <c r="F43" t="n">
+        <v/>
       </c>
       <c r="G43" t="n">
         <v/>
@@ -1872,25 +1876,21 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v/>
       </c>
       <c r="E44" t="n">
         <v/>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0971073757</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
       </c>
       <c r="G44" t="n">
         <v/>
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1940,11 +1940,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -1974,23 +1974,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="n">
-        <v/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0971073757</t>
+        </is>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2006,16 +2008,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2023,7 +2025,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0762865707</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2040,23 +2042,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="n">
-        <v/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0872928717</t>
+        </is>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2072,25 +2076,23 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>032781693</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2106,11 +2108,11 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2121,8 +2123,10 @@
       <c r="E51" t="n">
         <v/>
       </c>
-      <c r="F51" t="n">
-        <v/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0337594599</t>
+        </is>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -2138,11 +2142,11 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2153,10 +2157,8 @@
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F52" t="n">
+        <v/>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2172,11 +2174,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2189,7 +2191,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>032781693</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2206,25 +2208,23 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0855677756</t>
-        </is>
+      <c r="F54" t="n">
+        <v/>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2240,11 +2240,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2255,8 +2255,10 @@
       <c r="E55" t="n">
         <v/>
       </c>
-      <c r="F55" t="n">
-        <v/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G55" t="n">
         <v/>
@@ -2272,11 +2274,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2287,8 +2289,10 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="n">
-        <v/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2304,23 +2308,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v/>
       </c>
-      <c r="F57" t="n">
-        <v/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0855677756</t>
+        </is>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -2336,11 +2342,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2368,11 +2374,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2400,11 +2406,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2432,11 +2438,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2464,11 +2470,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2479,10 +2485,8 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F62" t="n">
+        <v/>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2498,25 +2502,23 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0989649094</t>
-        </is>
+      <c r="F63" t="n">
+        <v/>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2532,15 +2534,17 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phan </t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v/>
+          <t>nguyễn thị ánh tuyết</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E64" t="n">
         <v/>
@@ -2562,16 +2566,16 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2579,7 +2583,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0967039154</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2596,23 +2600,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="n">
-        <v/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0989649094</t>
+        </is>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2628,25 +2634,21 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Phan </t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v/>
       </c>
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0788716689</t>
-        </is>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2662,21 +2664,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v/>
+          <t>Nguyễn Ngọc Hoà</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="n">
-        <v/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0934108896</t>
+        </is>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2692,25 +2698,23 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E69" t="n">
         <v/>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0975352074</t>
-        </is>
+      <c r="F69" t="n">
+        <v/>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -2726,11 +2730,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2741,8 +2745,10 @@
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="n">
-        <v/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0788716689</t>
+        </is>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -2758,25 +2764,21 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v/>
       </c>
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>0974370797</t>
-        </is>
+      <c r="F71" t="n">
+        <v/>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -2792,16 +2794,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2809,7 +2811,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>037642542</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2826,25 +2828,23 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E73" t="n">
         <v/>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>0777448424</t>
-        </is>
+      <c r="F73" t="n">
+        <v/>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -2860,16 +2860,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2894,23 +2894,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="n">
-        <v/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>037642542</t>
+        </is>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2926,16 +2928,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2943,7 +2945,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0777448424</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2960,23 +2962,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="n">
-        <v/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0359390825</t>
+        </is>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -2992,11 +2996,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3007,10 +3011,8 @@
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0986087371</t>
-        </is>
+      <c r="F78" t="n">
+        <v/>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3026,21 +3028,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh Hậu </t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v/>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0865677896</t>
+        </is>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3056,11 +3062,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3071,10 +3077,8 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>0799535184</t>
-        </is>
+      <c r="F80" t="n">
+        <v/>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3090,16 +3094,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3107,7 +3111,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0384362705</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3124,25 +3128,21 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Anh Hậu </t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v/>
       </c>
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>0786942575</t>
-        </is>
+      <c r="F82" t="n">
+        <v/>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3158,11 +3158,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3192,16 +3192,16 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3226,16 +3226,16 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3243,16 +3243,14 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G85" t="n">
         <v/>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H85" t="n">
+        <v/>
       </c>
     </row>
     <row r="86">
@@ -3262,11 +3260,11 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3279,7 +3277,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3296,11 +3294,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3313,7 +3311,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3330,16 +3328,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3347,14 +3345,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0909903397</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v/>
       </c>
-      <c r="H88" t="n">
-        <v/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -3364,11 +3364,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3398,11 +3398,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3432,16 +3432,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3466,21 +3466,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>em na</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v/>
+          <t>Trương Thị Thuỷ Tiên</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E92" t="n">
         <v/>
       </c>
-      <c r="F92" t="n">
-        <v/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -3496,23 +3500,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E93" t="n">
         <v/>
       </c>
-      <c r="F93" t="n">
-        <v/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G93" t="n">
         <v/>
@@ -3528,23 +3534,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E94" t="n">
         <v/>
       </c>
-      <c r="F94" t="n">
-        <v/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0768862580</t>
+        </is>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -3560,17 +3568,15 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>em na</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v/>
       </c>
       <c r="E95" t="n">
         <v/>
@@ -3592,11 +3598,11 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3624,11 +3630,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3656,11 +3662,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3688,11 +3694,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3720,11 +3726,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3752,11 +3758,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3784,11 +3790,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3816,11 +3822,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3848,11 +3854,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3880,11 +3886,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3912,11 +3918,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3927,10 +3933,8 @@
       <c r="E106" t="n">
         <v/>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F106" t="n">
+        <v/>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -3946,11 +3950,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3978,11 +3982,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4010,16 +4014,16 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4027,7 +4031,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>0845450305</t>
+          <t>0369473448</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -4044,16 +4048,16 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -4076,25 +4080,23 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E111" t="n">
         <v/>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F111" t="n">
+        <v/>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4110,11 +4112,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4127,7 +4129,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>0939268869</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4144,25 +4146,23 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E113" t="n">
         <v/>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>0876956340</t>
-        </is>
+      <c r="F113" t="n">
+        <v/>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -4178,21 +4178,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v/>
+          <t>Lê Thị Bạch Tuyết</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E114" t="n">
         <v/>
       </c>
-      <c r="F114" t="n">
-        <v/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0772155826</t>
+        </is>
       </c>
       <c r="G114" t="n">
         <v/>
@@ -4208,16 +4212,16 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -4225,7 +4229,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4242,11 +4246,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4259,7 +4263,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -4276,25 +4280,21 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Thai kim hiếu</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v/>
       </c>
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>0833644489</t>
-        </is>
+      <c r="F117" t="n">
+        <v/>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -4310,16 +4310,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4344,16 +4344,16 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -4378,16 +4378,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4395,7 +4395,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4446,11 +4446,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4461,8 +4461,10 @@
       <c r="E122" t="n">
         <v/>
       </c>
-      <c r="F122" t="n">
-        <v/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8947126536</t>
+        </is>
       </c>
       <c r="G122" t="n">
         <v/>
@@ -4478,16 +4480,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4495,7 +4497,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0964945901</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4512,11 +4514,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4529,7 +4531,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -4546,11 +4548,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4561,10 +4563,8 @@
       <c r="E125" t="n">
         <v/>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>0386084494</t>
-        </is>
+      <c r="F125" t="n">
+        <v/>
       </c>
       <c r="G125" t="n">
         <v/>
@@ -4580,16 +4580,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -4614,23 +4614,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="n">
-        <v/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0326608620</t>
+        </is>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -4646,11 +4648,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4663,7 +4665,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4680,11 +4682,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4697,7 +4699,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -4714,11 +4716,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4729,10 +4731,8 @@
       <c r="E130" t="n">
         <v/>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>0949625783</t>
-        </is>
+      <c r="F130" t="n">
+        <v/>
       </c>
       <c r="G130" t="n">
         <v/>
@@ -4748,16 +4748,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -4782,16 +4782,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -4816,11 +4816,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -4850,11 +4850,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -4884,11 +4884,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4918,16 +4918,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -4935,7 +4935,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -4952,11 +4952,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -4986,11 +4986,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -5020,16 +5020,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -5054,24 +5054,24 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -5088,21 +5088,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>thuý vân</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v/>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E141" t="n">
         <v/>
       </c>
-      <c r="F141" t="n">
-        <v/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0799675368</t>
+        </is>
       </c>
       <c r="G141" t="n">
         <v/>
@@ -5118,16 +5122,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -5135,7 +5139,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -5152,11 +5156,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5165,20 +5169,18 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>94197013583</v>
+        <v>9417002720</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G143" t="n">
         <v/>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H143" t="n">
+        <v/>
       </c>
     </row>
     <row r="144">
@@ -5188,25 +5190,21 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v/>
       </c>
       <c r="E144" t="n">
         <v/>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>0946327273</t>
-        </is>
+      <c r="F144" t="n">
+        <v/>
       </c>
       <c r="G144" t="n">
         <v/>
@@ -5222,16 +5220,16 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -5239,7 +5237,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5256,31 +5254,33 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G146" t="n">
         <v/>
       </c>
-      <c r="H146" t="n">
-        <v/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="147">
@@ -5290,16 +5290,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -5324,16 +5324,16 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -5358,16 +5358,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -5392,21 +5392,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ngọc huyền</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v/>
+          <t>Chị Tâm</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E150" t="n">
         <v/>
       </c>
-      <c r="F150" t="n">
-        <v/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0396237229</t>
+        </is>
       </c>
       <c r="G150" t="n">
         <v/>
@@ -5422,16 +5426,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5439,7 +5443,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -5456,16 +5460,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5473,7 +5477,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -5490,25 +5494,21 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>ngọc huyền</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v/>
       </c>
       <c r="E153" t="n">
         <v/>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>0939773382</t>
-        </is>
+      <c r="F153" t="n">
+        <v/>
       </c>
       <c r="G153" t="n">
         <v/>
@@ -5524,16 +5524,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0376680568</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -5558,11 +5558,11 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G155" t="n">
@@ -5592,11 +5592,11 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -5626,11 +5626,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -5660,11 +5660,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -5694,23 +5694,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E159" t="n">
         <v/>
       </c>
-      <c r="F159" t="n">
-        <v/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G159" t="n">
         <v/>
@@ -5726,11 +5728,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5743,7 +5745,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -5760,11 +5762,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5775,8 +5777,10 @@
       <c r="E161" t="n">
         <v/>
       </c>
-      <c r="F161" t="n">
-        <v/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G161" t="n">
         <v/>
@@ -5792,16 +5796,16 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5824,11 +5828,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5839,8 +5843,10 @@
       <c r="E163" t="n">
         <v/>
       </c>
-      <c r="F163" t="n">
-        <v/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G163" t="n">
         <v/>
@@ -5856,11 +5862,11 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5888,11 +5894,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5920,11 +5926,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5952,11 +5958,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5984,11 +5990,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6016,11 +6022,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6048,11 +6054,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6080,15 +6086,17 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>dsfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v/>
+          <t>Thuỳ Nhiên</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E171" t="n">
         <v/>
@@ -6110,31 +6118,29 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v/>
+          <t>Cẩm Tú</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E172" t="n">
-        <v>86302000734</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F172" t="n">
+        <v/>
       </c>
       <c r="G172" t="n">
         <v/>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180C </t>
-        </is>
+      <c r="H172" t="n">
+        <v/>
       </c>
     </row>
     <row r="173">
@@ -6144,33 +6150,29 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyễn ngọc huyền </t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v/>
+          <t>Nguyễn Trí</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E173" t="n">
-        <v>1082839229928</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>0326665812</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Địa chỉ chi tiết </t>
-        </is>
+        <v/>
+      </c>
+      <c r="F173" t="n">
+        <v/>
+      </c>
+      <c r="G173" t="n">
+        <v/>
+      </c>
+      <c r="H173" t="n">
+        <v/>
       </c>
     </row>
     <row r="174">
@@ -6180,31 +6182,27 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Nguyễn hữu quang</t>
+          <t>dsfsdfsdf</t>
         </is>
       </c>
       <c r="D174" t="n">
         <v/>
       </c>
       <c r="E174" t="n">
-        <v>1201023299</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>0326665814</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F174" t="n">
+        <v/>
       </c>
       <c r="G174" t="n">
         <v/>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hà nội </t>
-        </is>
+      <c r="H174" t="n">
+        <v/>
       </c>
     </row>
     <row r="175">
@@ -6214,29 +6212,31 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Chị Vân</t>
+          <t>Nguyễn Thị Lan</t>
         </is>
       </c>
       <c r="D175" t="n">
         <v/>
       </c>
       <c r="E175" t="n">
-        <v/>
+        <v>86302000734</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>0385919853</t>
+          <t>0898833566</t>
         </is>
       </c>
       <c r="G175" t="n">
         <v/>
       </c>
-      <c r="H175" t="n">
-        <v/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180C </t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -6246,29 +6246,33 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>chị lam</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Nguyễn ngọc huyền </t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v/>
       </c>
       <c r="E176" t="n">
-        <v/>
-      </c>
-      <c r="F176" t="n">
-        <v/>
-      </c>
-      <c r="G176" t="n">
-        <v/>
-      </c>
-      <c r="H176" t="n">
-        <v/>
+        <v>1082839229928</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0326665812</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Địa chỉ chi tiết </t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -6278,29 +6282,31 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn hữu quang</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v/>
       </c>
       <c r="E177" t="n">
-        <v/>
-      </c>
-      <c r="F177" t="n">
-        <v/>
+        <v>1201023299</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0326665814</t>
+        </is>
       </c>
       <c r="G177" t="n">
         <v/>
       </c>
-      <c r="H177" t="n">
-        <v/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hà nội </t>
+        </is>
       </c>
     </row>
     <row r="178">
@@ -6310,24 +6316,22 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Chị Vân</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v/>
       </c>
       <c r="E178" t="n">
         <v/>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0385919853</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -6344,11 +6348,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6376,11 +6380,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6408,11 +6412,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6423,8 +6427,10 @@
       <c r="E181" t="n">
         <v/>
       </c>
-      <c r="F181" t="n">
-        <v/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G181" t="n">
         <v/>
@@ -6440,11 +6446,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6472,11 +6478,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6504,11 +6510,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6536,11 +6542,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6568,16 +6574,16 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -6600,11 +6606,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6632,11 +6638,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6664,25 +6670,23 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E189" t="n">
         <v/>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F189" t="n">
+        <v/>
       </c>
       <c r="G189" t="n">
         <v/>
@@ -6698,11 +6702,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6730,16 +6734,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6762,23 +6766,25 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E192" t="n">
         <v/>
       </c>
-      <c r="F192" t="n">
-        <v/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G192" t="n">
         <v/>
@@ -6794,16 +6800,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6826,11 +6832,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6858,11 +6864,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6890,11 +6896,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6922,11 +6928,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6954,11 +6960,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6986,11 +6992,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7018,11 +7024,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7050,11 +7056,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7082,16 +7088,16 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -7114,16 +7120,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -7146,16 +7152,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7178,11 +7184,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7210,11 +7216,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7242,11 +7248,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7274,11 +7280,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7306,11 +7312,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7338,11 +7344,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7370,11 +7376,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7402,11 +7408,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7434,11 +7440,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7466,11 +7472,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7498,11 +7504,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7530,11 +7536,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7562,11 +7568,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7594,11 +7600,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7626,11 +7632,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7658,11 +7664,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7690,11 +7696,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7722,11 +7728,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7754,11 +7760,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7786,11 +7792,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7818,11 +7824,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7850,11 +7856,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7882,11 +7888,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7914,16 +7920,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -7946,16 +7952,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -7978,16 +7984,16 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -8010,11 +8016,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8042,11 +8048,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8057,10 +8063,8 @@
       <c r="E232" t="n">
         <v/>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F232" t="n">
+        <v/>
       </c>
       <c r="G232" t="n">
         <v/>
@@ -8076,11 +8080,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8091,10 +8095,8 @@
       <c r="E233" t="n">
         <v/>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F233" t="n">
+        <v/>
       </c>
       <c r="G233" t="n">
         <v/>
@@ -8110,11 +8112,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8142,11 +8144,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8157,8 +8159,10 @@
       <c r="E235" t="n">
         <v/>
       </c>
-      <c r="F235" t="n">
-        <v/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G235" t="n">
         <v/>
@@ -8174,11 +8178,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8189,8 +8193,10 @@
       <c r="E236" t="n">
         <v/>
       </c>
-      <c r="F236" t="n">
-        <v/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G236" t="n">
         <v/>
@@ -8206,11 +8212,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8219,12 +8225,10 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F237" t="n">
+        <v/>
       </c>
       <c r="G237" t="n">
         <v/>
@@ -8240,11 +8244,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8272,11 +8276,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8304,11 +8308,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8317,10 +8321,12 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v/>
-      </c>
-      <c r="F240" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G240" t="n">
         <v/>
@@ -8336,11 +8342,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8368,11 +8374,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8400,11 +8406,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8432,11 +8438,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8464,11 +8470,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8496,11 +8502,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8528,11 +8534,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8560,11 +8566,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8575,10 +8581,8 @@
       <c r="E248" t="n">
         <v/>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F248" t="n">
+        <v/>
       </c>
       <c r="G248" t="n">
         <v/>
@@ -8594,11 +8598,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8626,11 +8630,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8658,11 +8662,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8673,8 +8677,10 @@
       <c r="E251" t="n">
         <v/>
       </c>
-      <c r="F251" t="n">
-        <v/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G251" t="n">
         <v/>
@@ -8690,11 +8696,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8722,11 +8728,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8754,11 +8760,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8786,11 +8792,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8801,10 +8807,8 @@
       <c r="E255" t="n">
         <v/>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F255" t="n">
+        <v/>
       </c>
       <c r="G255" t="n">
         <v/>
@@ -8820,11 +8824,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8852,11 +8856,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8884,11 +8888,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8899,8 +8903,10 @@
       <c r="E258" t="n">
         <v/>
       </c>
-      <c r="F258" t="n">
-        <v/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G258" t="n">
         <v/>
@@ -8916,11 +8922,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8948,11 +8954,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8980,11 +8986,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9012,11 +9018,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9044,11 +9050,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9076,11 +9082,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9108,11 +9114,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9140,11 +9146,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -9172,11 +9178,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9204,11 +9210,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9236,11 +9242,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9251,10 +9257,8 @@
       <c r="E269" t="n">
         <v/>
       </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F269" t="n">
+        <v/>
       </c>
       <c r="G269" t="n">
         <v/>
@@ -9270,11 +9274,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9302,11 +9306,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9334,11 +9338,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9349,8 +9353,10 @@
       <c r="E272" t="n">
         <v/>
       </c>
-      <c r="F272" t="n">
-        <v/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G272" t="n">
         <v/>
@@ -9366,11 +9372,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9398,11 +9404,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -9430,11 +9436,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9462,11 +9468,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9494,16 +9500,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -9526,16 +9532,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -9558,16 +9564,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -9590,11 +9596,11 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9622,11 +9628,11 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9654,11 +9660,11 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9686,11 +9692,11 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9718,11 +9724,11 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9750,11 +9756,11 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9782,11 +9788,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9814,11 +9820,11 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9846,11 +9852,11 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9878,11 +9884,11 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9910,25 +9916,23 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E290" t="n">
         <v/>
       </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F290" t="n">
+        <v/>
       </c>
       <c r="G290" t="n">
         <v/>
@@ -9944,16 +9948,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Em Kim</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -9976,16 +9980,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -10008,11 +10012,11 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10023,8 +10027,10 @@
       <c r="E293" t="n">
         <v/>
       </c>
-      <c r="F293" t="n">
-        <v/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G293" t="n">
         <v/>
@@ -10040,11 +10046,11 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10072,11 +10078,11 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10104,11 +10110,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -10136,11 +10142,11 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -10168,11 +10174,11 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10200,11 +10206,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Chị Mai</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10232,16 +10238,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -10264,16 +10270,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Quan thị Hoa</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -10296,16 +10302,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Chị Mai</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -10328,11 +10334,11 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10360,11 +10366,11 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -10392,11 +10398,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -10424,11 +10430,11 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -10456,11 +10462,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -10488,11 +10494,11 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -10520,11 +10526,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -10552,11 +10558,11 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10584,11 +10590,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -10616,11 +10622,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10648,11 +10654,11 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -10680,11 +10686,11 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10712,11 +10718,11 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -10744,30 +10750,126 @@
         </is>
       </c>
       <c r="B316" t="n">
+        <v>44</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v/>
+      </c>
+      <c r="F316" t="n">
+        <v/>
+      </c>
+      <c r="G316" t="n">
+        <v/>
+      </c>
+      <c r="H316" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>43</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v/>
+      </c>
+      <c r="F317" t="n">
+        <v/>
+      </c>
+      <c r="G317" t="n">
+        <v/>
+      </c>
+      <c r="H317" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>42</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v/>
+      </c>
+      <c r="F318" t="n">
+        <v/>
+      </c>
+      <c r="G318" t="n">
+        <v/>
+      </c>
+      <c r="H318" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
         <v>41</v>
       </c>
-      <c r="C316" t="inlineStr">
+      <c r="C319" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E316" t="n">
-        <v/>
-      </c>
-      <c r="F316" t="inlineStr">
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v/>
+      </c>
+      <c r="F319" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G316" t="n">
-        <v/>
-      </c>
-      <c r="H316" t="n">
+      <c r="G319" t="n">
+        <v/>
+      </c>
+      <c r="H319" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng .xlsx
+++ b/report_khach_hang/Danh sách khách hàng .xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,25 +470,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0939925920</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -504,16 +502,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -521,7 +519,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -538,11 +536,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -555,7 +553,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0392273827</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -572,16 +570,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -589,7 +587,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -606,16 +604,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -623,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -640,11 +638,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -657,7 +655,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -674,16 +672,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -691,7 +689,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -708,16 +706,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -725,7 +723,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -742,16 +740,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -759,7 +757,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -776,16 +774,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -793,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>077721995</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -810,11 +808,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -827,7 +825,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -844,23 +842,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0325266431</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -910,25 +910,23 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0786070121</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -944,16 +942,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -961,7 +959,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0787197424</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -978,16 +976,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -995,7 +993,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0966509605</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1012,16 +1010,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1029,7 +1027,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1046,11 +1044,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1063,7 +1061,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1080,11 +1078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1097,7 +1095,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1114,11 +1112,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1131,7 +1129,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1148,16 +1146,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1165,7 +1163,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0921463451</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1182,16 +1180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1199,7 +1197,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1216,23 +1214,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v/>
       </c>
-      <c r="F24" t="n">
-        <v/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0345277993</t>
+        </is>
       </c>
       <c r="G24" t="n">
         <v/>
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1282,25 +1282,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0339542900</t>
-        </is>
+      <c r="F26" t="n">
+        <v/>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1316,16 +1314,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1333,7 +1331,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1350,16 +1348,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1367,7 +1365,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1384,16 +1382,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1401,7 +1399,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1418,16 +1416,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1435,7 +1433,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1452,16 +1450,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1469,7 +1467,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1486,11 +1484,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1503,7 +1501,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1520,16 +1518,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1537,7 +1535,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0798048895</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1554,16 +1552,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1571,7 +1569,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0876359756</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1588,11 +1586,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1603,8 +1601,10 @@
       <c r="E35" t="n">
         <v/>
       </c>
-      <c r="F35" t="n">
-        <v/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G35" t="n">
         <v/>
@@ -1620,23 +1620,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="n">
-        <v/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1652,15 +1654,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v/>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E37" t="n">
         <v/>
@@ -1682,15 +1686,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E38" t="n">
         <v/>
@@ -1712,25 +1718,21 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v/>
       </c>
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0761880789</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1746,25 +1748,21 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v/>
       </c>
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0778162478</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1780,23 +1778,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="n">
-        <v/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0761880789</t>
+        </is>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -1812,23 +1812,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="n">
-        <v/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -1844,11 +1846,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1876,15 +1878,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>na quy</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v/>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E44" t="n">
         <v/>
@@ -1906,11 +1910,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1921,10 +1925,8 @@
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -1940,25 +1942,21 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v/>
       </c>
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0825707451</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1974,16 +1972,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1991,7 +1989,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2008,16 +2006,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2025,7 +2023,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0762865707</t>
+          <t>0825707451</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -2042,11 +2040,11 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2059,7 +2057,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -2076,11 +2074,11 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2091,8 +2089,10 @@
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="n">
-        <v/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2108,16 +2108,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2174,11 +2174,11 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>032781693</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2208,11 +2208,11 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2240,11 +2240,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>032781693</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2274,11 +2274,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2289,10 +2289,8 @@
       <c r="E56" t="n">
         <v/>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F56" t="n">
+        <v/>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -2308,16 +2306,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2325,7 +2323,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>0852054955</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2342,11 +2340,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2357,8 +2355,10 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="n">
-        <v/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2374,23 +2374,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v/>
       </c>
-      <c r="F59" t="n">
-        <v/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0855677756</t>
+        </is>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -2406,11 +2408,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2438,11 +2440,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2470,11 +2472,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2502,11 +2504,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2534,11 +2536,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2566,11 +2568,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t>khanh ktv cũ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2581,10 +2583,8 @@
       <c r="E65" t="n">
         <v/>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F65" t="n">
+        <v/>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -2600,25 +2600,23 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v/>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>0989649094</t>
-        </is>
+      <c r="F66" t="n">
+        <v/>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -2634,21 +2632,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phan </t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v/>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="n">
-        <v/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2664,16 +2666,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2681,7 +2683,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0934108896</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -2698,17 +2700,15 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Phan </t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v/>
       </c>
       <c r="E69" t="n">
         <v/>
@@ -2730,11 +2730,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G70" t="n">
@@ -2764,15 +2764,17 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v/>
+          <t>Phan Thị Thanh Nhanh</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E71" t="n">
         <v/>
@@ -2794,16 +2796,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2811,7 +2813,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2828,17 +2830,15 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v/>
       </c>
       <c r="E73" t="n">
         <v/>
@@ -2860,16 +2860,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2894,25 +2894,23 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E75" t="n">
         <v/>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F75" t="n">
+        <v/>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -2928,16 +2926,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2945,7 +2943,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2962,11 +2960,11 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2979,7 +2977,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0359390825</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -2996,23 +2994,25 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E78" t="n">
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0777448424</t>
+        </is>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3062,11 +3062,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Trương Thị Thuỳ</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3094,11 +3094,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3128,15 +3128,17 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh Hậu </t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v/>
+          <t>Hồ Văn Lượng</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E82" t="n">
         <v/>
@@ -3158,11 +3160,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3175,7 +3177,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3192,25 +3194,21 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Anh Hậu </t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v/>
       </c>
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F84" t="n">
+        <v/>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3226,11 +3224,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3243,7 +3241,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3260,16 +3258,16 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3277,7 +3275,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0901099987</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3294,11 +3292,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3311,7 +3309,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3328,16 +3326,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3345,16 +3343,14 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v/>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H88" t="n">
+        <v/>
       </c>
     </row>
     <row r="89">
@@ -3364,11 +3360,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3381,7 +3377,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3398,16 +3394,16 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3415,14 +3411,16 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0909903397</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v/>
       </c>
-      <c r="H90" t="n">
-        <v/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -3432,11 +3430,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3449,7 +3447,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3466,11 +3464,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3483,7 +3481,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3500,11 +3498,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3517,7 +3515,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3534,16 +3532,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3551,7 +3549,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0936335226</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -3568,21 +3566,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>em na</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v/>
+          <t>Lê Thị Oanh</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E95" t="n">
         <v/>
       </c>
-      <c r="F95" t="n">
-        <v/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -3598,23 +3600,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E96" t="n">
         <v/>
       </c>
-      <c r="F96" t="n">
-        <v/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0768862580</t>
+        </is>
       </c>
       <c r="G96" t="n">
         <v/>
@@ -3630,17 +3634,15 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Em My</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>em na</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v/>
       </c>
       <c r="E97" t="n">
         <v/>
@@ -3662,11 +3664,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3694,11 +3696,11 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3726,11 +3728,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3758,11 +3760,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3790,11 +3792,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3822,11 +3824,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3854,11 +3856,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3886,11 +3888,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3918,11 +3920,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3950,11 +3952,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3982,11 +3984,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4014,11 +4016,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4029,10 +4031,8 @@
       <c r="E109" t="n">
         <v/>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F109" t="n">
+        <v/>
       </c>
       <c r="G109" t="n">
         <v/>
@@ -4048,11 +4048,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4080,11 +4080,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4095,8 +4095,10 @@
       <c r="E111" t="n">
         <v/>
       </c>
-      <c r="F111" t="n">
-        <v/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4112,25 +4114,23 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v/>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>0845450305</t>
-        </is>
+      <c r="F112" t="n">
+        <v/>
       </c>
       <c r="G112" t="n">
         <v/>
@@ -4146,16 +4146,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -4178,11 +4178,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>0772155826</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -4212,11 +4212,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Lê Thị Gấm</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4227,10 +4227,8 @@
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F115" t="n">
+        <v/>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4246,16 +4244,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4263,7 +4261,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -4280,21 +4278,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
-        </is>
-      </c>
-      <c r="D117" t="n">
-        <v/>
+          <t>Thạch Bảo Ngọc</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="n">
-        <v/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0939268869</t>
+        </is>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -4310,11 +4312,11 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4327,7 +4329,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4344,25 +4346,21 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Em gấm</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t>Thai kim hiếu</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v/>
       </c>
       <c r="E119" t="n">
         <v/>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>0764666615</t>
-        </is>
+      <c r="F119" t="n">
+        <v/>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -4378,16 +4376,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4395,7 +4393,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4412,16 +4410,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4429,7 +4427,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0918877304</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4446,16 +4444,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4463,7 +4461,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -4480,16 +4478,16 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -4497,7 +4495,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0918877304</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4514,11 +4512,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4531,7 +4529,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -4548,23 +4546,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E125" t="n">
         <v/>
       </c>
-      <c r="F125" t="n">
-        <v/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0906291291</t>
+        </is>
       </c>
       <c r="G125" t="n">
         <v/>
@@ -4580,11 +4580,11 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0964945901</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -4614,11 +4614,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4629,10 +4629,8 @@
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>0326608620</t>
-        </is>
+      <c r="F127" t="n">
+        <v/>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -4648,11 +4646,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4665,7 +4663,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0964945901</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4682,16 +4680,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4699,7 +4697,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0916250690</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -4716,23 +4714,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E130" t="n">
         <v/>
       </c>
-      <c r="F130" t="n">
-        <v/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0386084494</t>
+        </is>
       </c>
       <c r="G130" t="n">
         <v/>
@@ -4748,16 +4748,16 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -4782,25 +4782,23 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E132" t="n">
         <v/>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>0985568838</t>
-        </is>
+      <c r="F132" t="n">
+        <v/>
       </c>
       <c r="G132" t="n">
         <v/>
@@ -4816,16 +4814,16 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -4833,7 +4831,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -4850,16 +4848,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4867,7 +4865,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0939273533</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -4884,11 +4882,11 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4901,7 +4899,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4918,11 +4916,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4935,7 +4933,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -4952,11 +4950,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4969,7 +4967,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -4986,11 +4984,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5003,7 +5001,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -5020,16 +5018,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -5037,7 +5035,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -5054,11 +5052,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5071,7 +5069,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -5088,16 +5086,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5105,7 +5103,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -5122,11 +5120,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5139,7 +5137,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -5156,24 +5154,24 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -5190,21 +5188,25 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>thuý vân</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v/>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E144" t="n">
         <v/>
       </c>
-      <c r="F144" t="n">
-        <v/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0868748958</t>
+        </is>
       </c>
       <c r="G144" t="n">
         <v/>
@@ -5220,24 +5222,24 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5254,33 +5256,27 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v/>
       </c>
       <c r="E146" t="n">
-        <v>94197013583</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>0977825701</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F146" t="n">
+        <v/>
       </c>
       <c r="G146" t="n">
         <v/>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H146" t="n">
+        <v/>
       </c>
     </row>
     <row r="147">
@@ -5290,16 +5286,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5307,7 +5303,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -5324,31 +5320,33 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0779886019</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G148" t="n">
         <v/>
       </c>
-      <c r="H148" t="n">
-        <v/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -5358,11 +5356,11 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5375,7 +5373,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -5392,16 +5390,16 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -5409,7 +5407,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G150" t="n">
@@ -5426,16 +5424,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5443,7 +5441,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -5460,11 +5458,11 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5477,7 +5475,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -5494,21 +5492,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ngọc huyền</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v/>
+          <t>Hồ thị Kim thoa</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
       </c>
       <c r="E153" t="n">
         <v/>
       </c>
-      <c r="F153" t="n">
-        <v/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0964414150</t>
+        </is>
       </c>
       <c r="G153" t="n">
         <v/>
@@ -5524,16 +5526,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5541,7 +5543,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -5558,25 +5560,21 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>ngọc huyền</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v/>
       </c>
       <c r="E155" t="n">
         <v/>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>0364212994</t>
-        </is>
+      <c r="F155" t="n">
+        <v/>
       </c>
       <c r="G155" t="n">
         <v/>
@@ -5592,16 +5590,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5609,7 +5607,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0376680568</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -5626,11 +5624,11 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5643,7 +5641,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0762777862</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -5660,11 +5658,11 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5677,7 +5675,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -5694,11 +5692,11 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5711,7 +5709,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -5728,11 +5726,11 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5745,7 +5743,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0703145712</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -5762,11 +5760,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5779,7 +5777,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -5796,23 +5794,25 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E162" t="n">
         <v/>
       </c>
-      <c r="F162" t="n">
-        <v/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G162" t="n">
         <v/>
@@ -5828,11 +5828,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0777004897</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -5862,16 +5862,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5894,11 +5894,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5909,8 +5909,10 @@
       <c r="E165" t="n">
         <v/>
       </c>
-      <c r="F165" t="n">
-        <v/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G165" t="n">
         <v/>
@@ -5926,11 +5928,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5958,11 +5960,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5990,11 +5992,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6022,11 +6024,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6054,11 +6056,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6086,11 +6088,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6118,11 +6120,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Đặng Ngọc Đảm</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6150,11 +6152,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6182,15 +6184,17 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>dsfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v/>
+          <t>Cẩm Tú</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E174" t="n">
         <v/>
@@ -6212,31 +6216,29 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v/>
+          <t>Nguyễn Trí</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E175" t="n">
-        <v>86302000734</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F175" t="n">
+        <v/>
       </c>
       <c r="G175" t="n">
         <v/>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180C </t>
-        </is>
+      <c r="H175" t="n">
+        <v/>
       </c>
     </row>
     <row r="176">
@@ -6246,33 +6248,27 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyễn ngọc huyền </t>
+          <t>dsfsdfsdf</t>
         </is>
       </c>
       <c r="D176" t="n">
         <v/>
       </c>
       <c r="E176" t="n">
-        <v>1082839229928</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>0326665812</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
-        </is>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Địa chỉ chi tiết </t>
-        </is>
+        <v/>
+      </c>
+      <c r="F176" t="n">
+        <v/>
+      </c>
+      <c r="G176" t="n">
+        <v/>
+      </c>
+      <c r="H176" t="n">
+        <v/>
       </c>
     </row>
     <row r="177">
@@ -6282,22 +6278,22 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Nguyễn hữu quang</t>
+          <t>Nguyễn Thị Lan</t>
         </is>
       </c>
       <c r="D177" t="n">
         <v/>
       </c>
       <c r="E177" t="n">
-        <v>1201023299</v>
+        <v>86302000734</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>0326665814</t>
+          <t>0898833566</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -6305,7 +6301,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t xml:space="preserve">hà nội </t>
+          <t xml:space="preserve">180C </t>
         </is>
       </c>
     </row>
@@ -6316,29 +6312,33 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Chị Vân</t>
+          <t xml:space="preserve">Nguyễn ngọc huyền </t>
         </is>
       </c>
       <c r="D178" t="n">
         <v/>
       </c>
       <c r="E178" t="n">
-        <v/>
+        <v>1082839229928</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>0385919853</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v/>
-      </c>
-      <c r="H178" t="n">
-        <v/>
+          <t>0326665812</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Địa chỉ chi tiết </t>
+        </is>
       </c>
     </row>
     <row r="179">
@@ -6348,29 +6348,31 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>chị lam</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn hữu quang</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v/>
       </c>
       <c r="E179" t="n">
-        <v/>
-      </c>
-      <c r="F179" t="n">
-        <v/>
+        <v>1201023299</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0326665814</t>
+        </is>
       </c>
       <c r="G179" t="n">
         <v/>
       </c>
-      <c r="H179" t="n">
-        <v/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hà nội </t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -6380,23 +6382,23 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Chị Vân</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v/>
       </c>
       <c r="E180" t="n">
         <v/>
       </c>
-      <c r="F180" t="n">
-        <v/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0385919853</t>
+        </is>
       </c>
       <c r="G180" t="n">
         <v/>
@@ -6412,11 +6414,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6427,10 +6429,8 @@
       <c r="E181" t="n">
         <v/>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>0387888961</t>
-        </is>
+      <c r="F181" t="n">
+        <v/>
       </c>
       <c r="G181" t="n">
         <v/>
@@ -6446,11 +6446,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6478,11 +6478,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6493,8 +6493,10 @@
       <c r="E183" t="n">
         <v/>
       </c>
-      <c r="F183" t="n">
-        <v/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G183" t="n">
         <v/>
@@ -6510,11 +6512,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6542,11 +6544,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6574,11 +6576,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6606,11 +6608,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6638,11 +6640,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6670,16 +6672,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -6702,11 +6704,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6734,16 +6736,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6766,11 +6768,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6781,10 +6783,8 @@
       <c r="E192" t="n">
         <v/>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F192" t="n">
+        <v/>
       </c>
       <c r="G192" t="n">
         <v/>
@@ -6800,11 +6800,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6832,23 +6832,25 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E194" t="n">
         <v/>
       </c>
-      <c r="F194" t="n">
-        <v/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G194" t="n">
         <v/>
@@ -6864,16 +6866,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6896,11 +6898,11 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6928,11 +6930,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6960,11 +6962,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6992,11 +6994,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7024,11 +7026,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7056,11 +7058,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7088,11 +7090,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7120,11 +7122,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7152,11 +7154,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -7184,16 +7186,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -7216,16 +7218,16 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7248,11 +7250,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7280,11 +7282,11 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7312,11 +7314,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7344,11 +7346,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7376,11 +7378,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7408,11 +7410,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7440,11 +7442,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7472,11 +7474,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7504,11 +7506,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7536,11 +7538,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7568,11 +7570,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7600,11 +7602,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7632,11 +7634,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7664,11 +7666,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7696,11 +7698,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7728,11 +7730,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7760,11 +7762,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7792,11 +7794,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7824,11 +7826,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7856,11 +7858,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7888,11 +7890,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7920,11 +7922,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7952,11 +7954,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7984,11 +7986,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8016,16 +8018,16 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -8048,16 +8050,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -8080,11 +8082,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8112,11 +8114,11 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8144,11 +8146,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8159,10 +8161,8 @@
       <c r="E235" t="n">
         <v/>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F235" t="n">
+        <v/>
       </c>
       <c r="G235" t="n">
         <v/>
@@ -8178,11 +8178,11 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8193,10 +8193,8 @@
       <c r="E236" t="n">
         <v/>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F236" t="n">
+        <v/>
       </c>
       <c r="G236" t="n">
         <v/>
@@ -8212,11 +8210,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8227,8 +8225,10 @@
       <c r="E237" t="n">
         <v/>
       </c>
-      <c r="F237" t="n">
-        <v/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G237" t="n">
         <v/>
@@ -8244,11 +8244,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8259,8 +8259,10 @@
       <c r="E238" t="n">
         <v/>
       </c>
-      <c r="F238" t="n">
-        <v/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G238" t="n">
         <v/>
@@ -8276,11 +8278,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8308,11 +8310,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8321,12 +8323,10 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F240" t="n">
+        <v/>
       </c>
       <c r="G240" t="n">
         <v/>
@@ -8342,11 +8342,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8374,11 +8374,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8387,10 +8387,12 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v/>
-      </c>
-      <c r="F242" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G242" t="n">
         <v/>
@@ -8406,11 +8408,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8438,11 +8440,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8470,11 +8472,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8502,11 +8504,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8534,11 +8536,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8566,11 +8568,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8598,11 +8600,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8630,11 +8632,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8662,11 +8664,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8677,10 +8679,8 @@
       <c r="E251" t="n">
         <v/>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F251" t="n">
+        <v/>
       </c>
       <c r="G251" t="n">
         <v/>
@@ -8696,11 +8696,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8728,11 +8728,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8743,8 +8743,10 @@
       <c r="E253" t="n">
         <v/>
       </c>
-      <c r="F253" t="n">
-        <v/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G253" t="n">
         <v/>
@@ -8760,11 +8762,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8792,11 +8794,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8824,11 +8826,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8856,11 +8858,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8888,11 +8890,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8903,10 +8905,8 @@
       <c r="E258" t="n">
         <v/>
       </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F258" t="n">
+        <v/>
       </c>
       <c r="G258" t="n">
         <v/>
@@ -8922,11 +8922,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8954,11 +8954,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8969,8 +8969,10 @@
       <c r="E260" t="n">
         <v/>
       </c>
-      <c r="F260" t="n">
-        <v/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G260" t="n">
         <v/>
@@ -8986,11 +8988,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9018,11 +9020,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9050,11 +9052,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9082,11 +9084,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9114,11 +9116,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9146,11 +9148,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -9178,11 +9180,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9210,11 +9212,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9242,11 +9244,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9274,11 +9276,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9306,11 +9308,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9338,11 +9340,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9353,10 +9355,8 @@
       <c r="E272" t="n">
         <v/>
       </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F272" t="n">
+        <v/>
       </c>
       <c r="G272" t="n">
         <v/>
@@ -9372,11 +9372,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9404,11 +9404,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -9419,8 +9419,10 @@
       <c r="E274" t="n">
         <v/>
       </c>
-      <c r="F274" t="n">
-        <v/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G274" t="n">
         <v/>
@@ -9436,11 +9438,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9468,11 +9470,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9500,11 +9502,11 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -9532,11 +9534,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9564,11 +9566,11 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9596,16 +9598,16 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -9628,16 +9630,16 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -9660,11 +9662,11 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9692,11 +9694,11 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -9724,11 +9726,11 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -9756,11 +9758,11 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9788,11 +9790,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9820,11 +9822,11 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9852,11 +9854,11 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9884,11 +9886,11 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9916,11 +9918,11 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9948,11 +9950,11 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9980,11 +9982,11 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10012,25 +10014,23 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Em Kim</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E293" t="n">
         <v/>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F293" t="n">
+        <v/>
       </c>
       <c r="G293" t="n">
         <v/>
@@ -10046,16 +10046,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -10078,11 +10078,11 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10093,8 +10093,10 @@
       <c r="E295" t="n">
         <v/>
       </c>
-      <c r="F295" t="n">
-        <v/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G295" t="n">
         <v/>
@@ -10110,11 +10112,11 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -10142,11 +10144,11 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -10174,11 +10176,11 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10206,11 +10208,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10238,11 +10240,11 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10270,11 +10272,11 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -10302,11 +10304,11 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Chị Mai</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -10334,16 +10336,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Quan thị Hoa</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -10366,16 +10368,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Chị Mai</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -10398,11 +10400,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -10430,11 +10432,11 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -10462,11 +10464,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -10494,11 +10496,11 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -10526,11 +10528,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -10558,11 +10560,11 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10590,11 +10592,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -10622,11 +10624,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10654,11 +10656,11 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -10686,11 +10688,11 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10718,11 +10720,11 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -10750,11 +10752,11 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -10782,11 +10784,11 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>Quỳnh Như</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10814,11 +10816,11 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Em Thảo</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -10846,30 +10848,94 @@
         </is>
       </c>
       <c r="B319" t="n">
+        <v>43</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v/>
+      </c>
+      <c r="F319" t="n">
+        <v/>
+      </c>
+      <c r="G319" t="n">
+        <v/>
+      </c>
+      <c r="H319" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>42</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v/>
+      </c>
+      <c r="F320" t="n">
+        <v/>
+      </c>
+      <c r="G320" t="n">
+        <v/>
+      </c>
+      <c r="H320" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
         <v>41</v>
       </c>
-      <c r="C319" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E319" t="n">
-        <v/>
-      </c>
-      <c r="F319" t="inlineStr">
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v/>
+      </c>
+      <c r="F321" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G319" t="n">
-        <v/>
-      </c>
-      <c r="H319" t="n">
+      <c r="G321" t="n">
+        <v/>
+      </c>
+      <c r="H321" t="n">
         <v/>
       </c>
     </row>

--- a/report_khach_hang/Danh sách khách hàng .xlsx
+++ b/report_khach_hang/Danh sách khách hàng .xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H321"/>
+  <dimension ref="A1:H325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,23 +470,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kim yến</t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0949407389</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -502,11 +504,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Như Huỳnh</t>
+          <t>Nguyễn Thị Phương</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -519,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0774533040</t>
+          <t>0962101850</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -536,16 +538,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị mỹ châm </t>
+          <t>Nguyễn Thị Lan Anh</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -553,7 +555,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0939925920</t>
+          <t>0564820827</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -570,16 +572,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>diệp thị mỹ hiền</t>
+          <t>Trần thị mỹ duyên</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -587,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0969540359</t>
+          <t>0912239800</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -604,25 +606,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>đặng thị mỹ ngọc</t>
+          <t>Kim yến</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v/>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0392273827</t>
-        </is>
+      <c r="F6" t="n">
+        <v/>
       </c>
       <c r="G6" t="n">
         <v/>
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Huỳnh Thị Như Huỳnh</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0907084330</t>
+          <t>0774533040</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -672,16 +672,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0796355441</t>
+          <t>0939925920</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -706,16 +706,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>diệp thị mỹ hiền</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0939702563</t>
+          <t>0969540359</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -740,11 +740,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>đặng thị mỹ ngọc</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0347738370</t>
+          <t>0392273827</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -791,7 +791,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>077721995</t>
+          <t>0907084330</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0796355441</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -842,11 +842,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0939702563</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -876,16 +876,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HD-LUXURY-556</t>
+          <t>0347738370</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -910,23 +910,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="n">
-        <v/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>077721995</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -942,16 +944,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -959,7 +961,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0917250314</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -976,16 +978,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -993,7 +995,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0786070121</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1010,16 +1012,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1027,7 +1029,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0787197424</t>
+          <t>HD-LUXURY-556</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1044,25 +1046,23 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v/>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0966509605</t>
-        </is>
+      <c r="F19" t="n">
+        <v/>
       </c>
       <c r="G19" t="n">
         <v/>
@@ -1078,16 +1078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0963180302</t>
+          <t>0917250314</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1112,16 +1112,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0786070121</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0921463451</t>
+          <t>0787197424</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1180,11 +1180,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0399381004</t>
+          <t>0966509605</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0345277993</t>
+          <t>0963180302</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1248,16 +1248,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0912122976</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1282,23 +1282,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>thuý vân</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0921463451</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1314,16 +1316,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1331,7 +1333,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0983432263</t>
+          <t>0399381004</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1348,11 +1350,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1365,7 +1367,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0339542900</t>
+          <t>0345277993</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1382,16 +1384,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1399,7 +1401,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0769326827</t>
+          <t>0912122976</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1416,25 +1418,23 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>thuý vân</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v/>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0868883621</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
       </c>
       <c r="G30" t="n">
         <v/>
@@ -1450,11 +1450,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0908179083</t>
+          <t>0983432263</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1484,11 +1484,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0921476462</t>
+          <t>0339542900</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1518,11 +1518,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0798048895</t>
+          <t>0769326827</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1552,16 +1552,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0876359756</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1586,11 +1586,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0908179083</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -1620,16 +1620,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0907388219</t>
+          <t>0921476462</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1654,23 +1654,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0798048895</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1686,23 +1688,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v/>
       </c>
-      <c r="F38" t="n">
-        <v/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0876359756</t>
+        </is>
       </c>
       <c r="G38" t="n">
         <v/>
@@ -1718,21 +1722,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v/>
+          <t>ngô  xuân nghi</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="n">
-        <v/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0868883621</t>
+        </is>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1748,21 +1756,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v/>
+          <t>Lê Thị Tuyết Anh</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0907388219</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1778,25 +1790,23 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v/>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0761880789</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
       </c>
       <c r="G41" t="n">
         <v/>
@@ -1812,25 +1822,23 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v/>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0778162478</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
       </c>
       <c r="G42" t="n">
         <v/>
@@ -1846,17 +1854,15 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v/>
       </c>
       <c r="E43" t="n">
         <v/>
@@ -1878,17 +1884,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v/>
       </c>
       <c r="E44" t="n">
         <v/>
@@ -1910,23 +1914,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v/>
       </c>
-      <c r="F45" t="n">
-        <v/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0761880789</t>
+        </is>
       </c>
       <c r="G45" t="n">
         <v/>
@@ -1942,21 +1948,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>na quy</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v/>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E46" t="n">
         <v/>
       </c>
-      <c r="F46" t="n">
-        <v/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0778162478</t>
+        </is>
       </c>
       <c r="G46" t="n">
         <v/>
@@ -1972,11 +1982,11 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1987,10 +1997,8 @@
       <c r="E47" t="n">
         <v/>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0969134464</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
       </c>
       <c r="G47" t="n">
         <v/>
@@ -2006,25 +2014,23 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v/>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0825707451</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -2040,25 +2046,23 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v/>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0971073757</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
       </c>
       <c r="G49" t="n">
         <v/>
@@ -2074,25 +2078,21 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v/>
       </c>
       <c r="E50" t="n">
         <v/>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0762865707</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
       </c>
       <c r="G50" t="n">
         <v/>
@@ -2108,16 +2108,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0872928717</t>
+          <t>0969134464</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2142,23 +2142,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v/>
       </c>
-      <c r="F52" t="n">
-        <v/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0825707451</t>
+        </is>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -2174,16 +2176,16 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2191,7 +2193,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0337594599</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2208,23 +2210,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v/>
       </c>
-      <c r="F54" t="n">
-        <v/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0762865707</t>
+        </is>
       </c>
       <c r="G54" t="n">
         <v/>
@@ -2240,16 +2244,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chị lan</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2257,7 +2261,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>032781693</t>
+          <t>0872928717</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2274,16 +2278,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>pola</t>
+          <t>Nana</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2306,11 +2310,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tạ thị nghĩa</t>
+          <t xml:space="preserve">lý thị thuý hằng </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2323,7 +2327,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0852054955</t>
+          <t>0337594599</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2340,11 +2344,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị sen </t>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2355,10 +2359,8 @@
       <c r="E58" t="n">
         <v/>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0852054955</t>
-        </is>
+      <c r="F58" t="n">
+        <v/>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -2374,16 +2376,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Đặng thị hồng đào</t>
+          <t>chị lan</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2391,7 +2393,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0855677756</t>
+          <t>032781693</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -2408,11 +2410,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ngọc mi sale ch</t>
+          <t>pola</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2440,11 +2442,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>tạ thị nghĩa</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2455,8 +2457,10 @@
       <c r="E61" t="n">
         <v/>
       </c>
-      <c r="F61" t="n">
-        <v/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -2472,11 +2476,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị liên </t>
+          <t xml:space="preserve">nguyễn thị sen </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2487,8 +2491,10 @@
       <c r="E62" t="n">
         <v/>
       </c>
-      <c r="F62" t="n">
-        <v/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0852054955</t>
+        </is>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -2504,23 +2510,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị trúc </t>
+          <t>Đặng thị hồng đào</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v/>
       </c>
-      <c r="F63" t="n">
-        <v/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0855677756</t>
+        </is>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -2536,11 +2544,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nhân nhân</t>
+          <t>ngọc mi sale ch</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2568,11 +2576,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>khanh ktv cũ</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2600,11 +2608,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>nguyễn thị ánh tuyết</t>
+          <t xml:space="preserve">chị liên </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2632,11 +2640,11 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
+          <t xml:space="preserve">chị trúc </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2647,10 +2655,8 @@
       <c r="E67" t="n">
         <v/>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0967039154</t>
-        </is>
+      <c r="F67" t="n">
+        <v/>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -2666,25 +2672,23 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lê thị mỹ duyên</t>
+          <t>nhân nhân</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E68" t="n">
         <v/>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0989649094</t>
-        </is>
+      <c r="F68" t="n">
+        <v/>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -2700,15 +2704,17 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phan </t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v/>
+          <t>khanh ktv cũ</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E69" t="n">
         <v/>
@@ -2730,25 +2736,23 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Hoà</t>
+          <t>nguyễn thị ánh tuyết</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E70" t="n">
         <v/>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>0934108896</t>
-        </is>
+      <c r="F70" t="n">
+        <v/>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -2764,23 +2768,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Phan Thị Thanh Nhanh</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E71" t="n">
         <v/>
       </c>
-      <c r="F71" t="n">
-        <v/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0967039154</t>
+        </is>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -2796,16 +2802,16 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Xuân Hương</t>
+          <t>Lê thị mỹ duyên</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2813,7 +2819,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0788716689</t>
+          <t>0989649094</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -2830,11 +2836,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t xml:space="preserve">Phan </t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2860,16 +2866,16 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mai thị nương</t>
+          <t>Nguyễn Ngọc Hoà</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2877,7 +2883,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0975352074</t>
+          <t>0934108896</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -2894,11 +2900,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ý</t>
+          <t>Phan Thị Thanh Nhanh</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2926,11 +2932,11 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Xuân Hương</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2943,7 +2949,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0788716689</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -2960,25 +2966,21 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>phạm thị yến trinh</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Mai thị nương</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v/>
       </c>
       <c r="E77" t="n">
         <v/>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>037642542</t>
-        </is>
+      <c r="F77" t="n">
+        <v/>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -2994,11 +2996,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Bùi thuý hằng</t>
+          <t>Mai thị nương</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3011,7 +3013,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0777448424</t>
+          <t>0975352074</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3028,25 +3030,23 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương khả ái </t>
+          <t>Nguyễn Như Ý</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E79" t="n">
         <v/>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>0359390825</t>
-        </is>
+      <c r="F79" t="n">
+        <v/>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -3062,11 +3062,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỳ</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3077,8 +3077,10 @@
       <c r="E80" t="n">
         <v/>
       </c>
-      <c r="F80" t="n">
-        <v/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0974370797</t>
+        </is>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -3094,16 +3096,16 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>phạm thị yến trinh</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3111,7 +3113,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0865677896</t>
+          <t>037642542</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3128,23 +3130,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Hồ Văn Lượng</t>
+          <t>Bùi thuý hằng</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E82" t="n">
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0777448424</t>
+        </is>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -3160,16 +3164,16 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nhiên</t>
+          <t xml:space="preserve">dương khả ái </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3177,7 +3181,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0986087371</t>
+          <t>0359390825</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3194,21 +3198,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh Hậu </t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v/>
+          <t>Trương Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E84" t="n">
         <v/>
       </c>
-      <c r="F84" t="n">
-        <v/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0347433400</t>
+        </is>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -3224,11 +3232,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Nguyễn Xuân Hồng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3241,7 +3249,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0799535184</t>
+          <t>0865677896</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -3258,25 +3266,23 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>đào thạch kim chi</t>
+          <t>Hồ Văn Lượng</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E86" t="n">
         <v/>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0384362705</t>
-        </is>
+      <c r="F86" t="n">
+        <v/>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -3292,11 +3298,11 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Phan Thị Cẩm Nhung</t>
+          <t>Nguyễn Thị Hồng Nhiên</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3309,7 +3315,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0786942575</t>
+          <t>0986087371</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3326,25 +3332,21 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Tạ Thị Huỳnh Kiến</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t xml:space="preserve">Anh Hậu </t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v/>
       </c>
       <c r="E88" t="n">
         <v/>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0901099987</t>
-        </is>
+      <c r="F88" t="n">
+        <v/>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -3360,11 +3362,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Nguyễn Xuân Hồng</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3377,7 +3379,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0799535184</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -3394,11 +3396,11 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ thị pha ri </t>
+          <t>đào thạch kim chi</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3411,16 +3413,14 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0909903397</t>
+          <t>0384362705</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v/>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">mỹ xuyên st </t>
-        </is>
+      <c r="H90" t="n">
+        <v/>
       </c>
     </row>
     <row r="91">
@@ -3430,11 +3430,11 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Âu Thị Sáu</t>
+          <t>Phan Thị Cẩm Nhung</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3447,7 +3447,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0907643256</t>
+          <t>0786942575</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3464,11 +3464,11 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Mộng Như Ý</t>
+          <t>Tạ Thị Huỳnh Kiến</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0974646251</t>
+          <t>0901099987</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3498,11 +3498,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3532,16 +3532,16 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Trương Thị Thuỷ Tiên</t>
+          <t xml:space="preserve">đỗ thị pha ri </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3549,14 +3549,16 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0936335226</t>
+          <t>0909903397</t>
         </is>
       </c>
       <c r="G94" t="n">
         <v/>
       </c>
-      <c r="H94" t="n">
-        <v/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mỹ xuyên st </t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -3566,11 +3568,11 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Lê Thị Oanh</t>
+          <t>Âu Thị Sáu</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3583,7 +3585,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0888155952</t>
+          <t>0907643256</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -3600,16 +3602,16 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Mộng Như Ý</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3617,7 +3619,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0768862580</t>
+          <t>0974646251</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -3634,21 +3636,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>em na</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v/>
+          <t>Nguyễn Hữu Dân</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E97" t="n">
         <v/>
       </c>
-      <c r="F97" t="n">
-        <v/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0868586369</t>
+        </is>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -3664,23 +3670,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Mạch Ngọc Diệp</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E98" t="n">
         <v/>
       </c>
-      <c r="F98" t="n">
-        <v/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0936335226</t>
+        </is>
       </c>
       <c r="G98" t="n">
         <v/>
@@ -3696,23 +3704,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Em My</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E99" t="n">
         <v/>
       </c>
-      <c r="F99" t="n">
-        <v/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0888155952</t>
+        </is>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -3728,23 +3738,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Chế Linh</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E100" t="n">
         <v/>
       </c>
-      <c r="F100" t="n">
-        <v/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0768862580</t>
+        </is>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -3760,17 +3772,15 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ngọc Mai</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>em na</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v/>
       </c>
       <c r="E101" t="n">
         <v/>
@@ -3792,11 +3802,11 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lâm t.dân</t>
+          <t>Mạch Ngọc Diệp</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3824,11 +3834,11 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mỹ Huyền</t>
+          <t>Em My</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3856,11 +3866,11 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lý phát tài</t>
+          <t>Chế Linh</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3888,11 +3898,11 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Kim phụng</t>
+          <t>Ngọc Mai</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3920,11 +3930,11 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lê Thị Sang</t>
+          <t>Lâm t.dân</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3952,11 +3962,11 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>chị Na</t>
+          <t>Mỹ Huyền</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3984,11 +3994,11 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>chị Ngọc</t>
+          <t>Lý phát tài</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4016,11 +4026,11 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>chị thuỳ</t>
+          <t>Kim phụng</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4048,11 +4058,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Anh Công</t>
+          <t>Lê Thị Sang</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4080,11 +4090,11 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">em Tuyền </t>
+          <t>chị Na</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4095,10 +4105,8 @@
       <c r="E111" t="n">
         <v/>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>0369473448</t>
-        </is>
+      <c r="F111" t="n">
+        <v/>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -4114,11 +4122,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>em Trinh</t>
+          <t>chị Ngọc</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4146,11 +4154,11 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Kiều Nhi</t>
+          <t>chị thuỳ</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4178,25 +4186,23 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t>Anh Công</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E114" t="n">
         <v/>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>0845450305</t>
-        </is>
+      <c r="F114" t="n">
+        <v/>
       </c>
       <c r="G114" t="n">
         <v/>
@@ -4212,23 +4218,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Lê Thị Gấm</t>
+          <t xml:space="preserve">em Tuyền </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E115" t="n">
         <v/>
       </c>
-      <c r="F115" t="n">
-        <v/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0369473448</t>
+        </is>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -4244,25 +4252,23 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lê Thị Bạch Tuyết</t>
+          <t>em Trinh</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E116" t="n">
         <v/>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>0772155826</t>
-        </is>
+      <c r="F116" t="n">
+        <v/>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -4278,25 +4284,23 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thạch Bảo Ngọc</t>
+          <t>Kiều Nhi</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E117" t="n">
         <v/>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>0939268869</t>
-        </is>
+      <c r="F117" t="n">
+        <v/>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -4312,16 +4316,16 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -4329,7 +4333,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>0876956340</t>
+          <t>0845450305</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -4346,15 +4350,17 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Thai kim hiếu</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v/>
+          <t>Lê Thị Gấm</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E119" t="n">
         <v/>
@@ -4376,16 +4382,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bùi tuấn</t>
+          <t>Lê Thị Bạch Tuyết</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4393,7 +4399,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>0582038580</t>
+          <t>0772155826</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -4410,16 +4416,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Em gấm</t>
+          <t>Thạch Bảo Ngọc</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -4427,7 +4433,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>0764666615</t>
+          <t>0939268869</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -4444,16 +4450,16 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Phượng</t>
+          <t>Thai kim hiếu</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -4461,7 +4467,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>0833644489</t>
+          <t>0876956340</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -4478,25 +4484,21 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Lê Thị Huyền Trang</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>Thai kim hiếu</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v/>
       </c>
       <c r="E123" t="n">
         <v/>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>0918877304</t>
-        </is>
+      <c r="F123" t="n">
+        <v/>
       </c>
       <c r="G123" t="n">
         <v/>
@@ -4512,16 +4514,16 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">đỗ bảo loan </t>
+          <t>Bùi tuấn</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4529,7 +4531,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>8947126536</t>
+          <t>0582038580</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -4546,11 +4548,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Phạm thị duyên</t>
+          <t>Em gấm</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4563,7 +4565,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>0906291291</t>
+          <t>0764666615</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -4580,16 +4582,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">sơn thị nga </t>
+          <t>Nguyễn Thị Phượng</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4597,7 +4599,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>0848708885</t>
+          <t>0833644489</t>
         </is>
       </c>
       <c r="G126" t="n">
@@ -4614,23 +4616,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>phalla</t>
+          <t>Lê Thị Huyền Trang</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E127" t="n">
         <v/>
       </c>
-      <c r="F127" t="n">
-        <v/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0918877304</t>
+        </is>
       </c>
       <c r="G127" t="n">
         <v/>
@@ -4646,11 +4650,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>lâm thanh trúc</t>
+          <t xml:space="preserve">đỗ bảo loan </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4663,7 +4667,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>0964945901</t>
+          <t>8947126536</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4680,16 +4684,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>huỳnh thị tài linh</t>
+          <t>Phạm thị duyên</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4697,7 +4701,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>0326608620</t>
+          <t>0906291291</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -4714,11 +4718,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>hà thị cảnh</t>
+          <t xml:space="preserve">sơn thị nga </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4731,7 +4735,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>0386084494</t>
+          <t>0848708885</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -4748,25 +4752,23 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Đặng thị ngọc diễm</t>
+          <t>phalla</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E131" t="n">
         <v/>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>0916250690</t>
-        </is>
+      <c r="F131" t="n">
+        <v/>
       </c>
       <c r="G131" t="n">
         <v/>
@@ -4782,23 +4784,25 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Huyền Thanh</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E132" t="n">
         <v/>
       </c>
-      <c r="F132" t="n">
-        <v/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0964945901</t>
+        </is>
       </c>
       <c r="G132" t="n">
         <v/>
@@ -4814,11 +4818,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>huỳnh thị như huyền</t>
+          <t>huỳnh thị tài linh</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4831,7 +4835,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0365658917</t>
+          <t>0326608620</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -4848,16 +4852,16 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Đặng thị thuỳ dương</t>
+          <t>hà thị cảnh</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4865,7 +4869,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0985568838</t>
+          <t>0386084494</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -4882,16 +4886,16 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Lê Mỹ Linh</t>
+          <t>Đặng thị ngọc diễm</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4899,7 +4903,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0949625783</t>
+          <t>0916250690</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -4916,11 +4920,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
+          <t>Huyền Thanh</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4931,10 +4935,8 @@
       <c r="E136" t="n">
         <v/>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>0939273533</t>
-        </is>
+      <c r="F136" t="n">
+        <v/>
       </c>
       <c r="G136" t="n">
         <v/>
@@ -4950,16 +4952,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Phan Ngọc Huyền</t>
+          <t>huỳnh thị như huyền</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -4967,7 +4969,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0383095255</t>
+          <t>0365658917</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -4984,16 +4986,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Kim Ngân</t>
+          <t>Đặng thị thuỳ dương</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5001,7 +5003,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0869122261</t>
+          <t>0985568838</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -5018,11 +5020,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Lê Mỹ Linh</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5035,7 +5037,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0949625783</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -5052,11 +5054,11 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Phan Bích Liễu</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5069,7 +5071,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0973442820</t>
+          <t>0939273533</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -5086,16 +5088,16 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Phan thuỳ vân</t>
+          <t>Phan Ngọc Huyền</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -5103,7 +5105,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0949439889</t>
+          <t>0383095255</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -5120,11 +5122,11 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Thị Kim Ngân</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5137,7 +5139,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0869122261</t>
         </is>
       </c>
       <c r="G142" t="n">
@@ -5154,11 +5156,11 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5171,7 +5173,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -5188,11 +5190,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Bích Liễu</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5205,7 +5207,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0973442820</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -5222,24 +5224,24 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>sơn thị chuol</t>
+          <t>Phan thuỳ vân</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>9417002720</v>
+        <v/>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0374112377</t>
+          <t>0949439889</t>
         </is>
       </c>
       <c r="G145" t="n">
@@ -5256,21 +5258,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>thuý vân</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v/>
+          <t>Trần Thị Phượng Hằng</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E146" t="n">
         <v/>
       </c>
-      <c r="F146" t="n">
-        <v/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0797571132</t>
+        </is>
       </c>
       <c r="G146" t="n">
         <v/>
@@ -5286,16 +5292,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>huỳnh thị nhi</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5303,7 +5309,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0945832211</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -5320,33 +5326,31 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">phan thị ngọc huyền </t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>94197013583</v>
+        <v/>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0977825701</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G148" t="n">
         <v/>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>liêu tú , trần đề , sóc trăng</t>
-        </is>
+      <c r="H148" t="n">
+        <v/>
       </c>
     </row>
     <row r="149">
@@ -5356,24 +5360,24 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>sơn thị chuol</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v/>
+        <v>9417002720</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0374112377</t>
         </is>
       </c>
       <c r="G149" t="n">
@@ -5390,25 +5394,21 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Nguyễn Mộng Phàn</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v/>
       </c>
       <c r="E150" t="n">
         <v/>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>0779886019</t>
-        </is>
+      <c r="F150" t="n">
+        <v/>
       </c>
       <c r="G150" t="n">
         <v/>
@@ -5424,16 +5424,16 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>huỳnh thị nhi</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0945832211</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -5458,31 +5458,33 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Chị Tâm</t>
+          <t xml:space="preserve">phan thị ngọc huyền </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v/>
+        <v>94197013583</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0396237229</t>
+          <t>0977825701</t>
         </is>
       </c>
       <c r="G152" t="n">
         <v/>
       </c>
-      <c r="H152" t="n">
-        <v/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>liêu tú , trần đề , sóc trăng</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -5492,16 +5494,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hồ thị Kim thoa</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5509,7 +5511,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0964414150</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -5526,16 +5528,16 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Chị diễm</t>
+          <t>Nguyễn Mộng Phàn</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5543,7 +5545,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0918665056</t>
+          <t>0779886019</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -5560,21 +5562,25 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ngọc huyền</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v/>
+          <t>Phan Mỹ Điền</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E155" t="n">
         <v/>
       </c>
-      <c r="F155" t="n">
-        <v/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0847413423</t>
+        </is>
       </c>
       <c r="G155" t="n">
         <v/>
@@ -5590,16 +5596,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ngọc mai</t>
+          <t>Chị Tâm</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5607,7 +5613,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0376680568</t>
+          <t>0396237229</t>
         </is>
       </c>
       <c r="G156" t="n">
@@ -5624,16 +5630,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Ngô Thị Bé</t>
+          <t>Hồ thị Kim thoa</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5641,7 +5647,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0364212994</t>
+          <t>0964414150</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -5658,16 +5664,16 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Chị diễm</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5675,7 +5681,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0918665056</t>
         </is>
       </c>
       <c r="G158" t="n">
@@ -5692,25 +5698,21 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+          <t>ngọc huyền</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v/>
       </c>
       <c r="E159" t="n">
         <v/>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>0762777862</t>
-        </is>
+      <c r="F159" t="n">
+        <v/>
       </c>
       <c r="G159" t="n">
         <v/>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Ngọc mai</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5743,7 +5745,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0703145712</t>
+          <t>0376680568</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -5760,11 +5762,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Ngô Thị Bé</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5777,7 +5779,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0364212994</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -5794,11 +5796,11 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5811,7 +5813,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0706432246</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G162" t="n">
@@ -5828,11 +5830,11 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5845,7 +5847,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0762777862</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -5862,23 +5864,25 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Em Như + Mẹ</t>
+          <t>Nguyễn Thị Trúc Giang</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E164" t="n">
         <v/>
       </c>
-      <c r="F164" t="n">
-        <v/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0703145712</t>
+        </is>
       </c>
       <c r="G164" t="n">
         <v/>
@@ -5894,11 +5898,11 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Huỳnh Thị Kim Minh</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5911,7 +5915,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0706432246</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -5928,11 +5932,11 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lê Thị Hạnh Quyên</t>
+          <t>Huỳnh Thị Kim Em</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5943,8 +5947,10 @@
       <c r="E166" t="n">
         <v/>
       </c>
-      <c r="F166" t="n">
-        <v/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0706432246</t>
+        </is>
       </c>
       <c r="G166" t="n">
         <v/>
@@ -5960,11 +5966,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5975,8 +5981,10 @@
       <c r="E167" t="n">
         <v/>
       </c>
-      <c r="F167" t="n">
-        <v/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0777004897</t>
+        </is>
       </c>
       <c r="G167" t="n">
         <v/>
@@ -5992,16 +6000,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Nguyễn Hồng Tơ</t>
+          <t>Em Như + Mẹ</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -6024,11 +6032,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Lữ Hoài Thơ</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6039,8 +6047,10 @@
       <c r="E169" t="n">
         <v/>
       </c>
-      <c r="F169" t="n">
-        <v/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G169" t="n">
         <v/>
@@ -6056,11 +6066,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Lê Thị Hạnh Quyên</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6088,11 +6098,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Tú Quyên</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6120,11 +6130,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Đảm</t>
+          <t>Nguyễn Hồng Tơ</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6152,11 +6162,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Lữ Hoài Thơ</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6184,11 +6194,11 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Cẩm Tú</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6216,11 +6226,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Nguyễn Trí</t>
+          <t>Tú Quyên</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6248,15 +6258,17 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>dsfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v/>
+          <t>Đặng Ngọc Đảm</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E176" t="n">
         <v/>
@@ -6278,31 +6290,29 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Lan</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v/>
+          <t>Thuỳ Nhiên</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E177" t="n">
-        <v>86302000734</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>0898833566</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F177" t="n">
+        <v/>
       </c>
       <c r="G177" t="n">
         <v/>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">180C </t>
-        </is>
+      <c r="H177" t="n">
+        <v/>
       </c>
     </row>
     <row r="178">
@@ -6312,33 +6322,29 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nguyễn ngọc huyền </t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v/>
+          <t>Cẩm Tú</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E178" t="n">
-        <v>1082839229928</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>0326665812</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
-        </is>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Địa chỉ chi tiết </t>
-        </is>
+        <v/>
+      </c>
+      <c r="F178" t="n">
+        <v/>
+      </c>
+      <c r="G178" t="n">
+        <v/>
+      </c>
+      <c r="H178" t="n">
+        <v/>
       </c>
     </row>
     <row r="179">
@@ -6348,31 +6354,29 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Nguyễn hữu quang</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v/>
+          <t>Nguyễn Trí</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E179" t="n">
-        <v>1201023299</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>0326665814</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F179" t="n">
+        <v/>
       </c>
       <c r="G179" t="n">
         <v/>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">hà nội </t>
-        </is>
+      <c r="H179" t="n">
+        <v/>
       </c>
     </row>
     <row r="180">
@@ -6382,11 +6386,11 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Chị Vân</t>
+          <t>dsfsdfsdf</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -6395,10 +6399,8 @@
       <c r="E180" t="n">
         <v/>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>0385919853</t>
-        </is>
+      <c r="F180" t="n">
+        <v/>
       </c>
       <c r="G180" t="n">
         <v/>
@@ -6414,29 +6416,31 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>chị lam</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn Thị Lan</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v/>
       </c>
       <c r="E181" t="n">
-        <v/>
-      </c>
-      <c r="F181" t="n">
-        <v/>
+        <v>86302000734</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0898833566</t>
+        </is>
       </c>
       <c r="G181" t="n">
         <v/>
       </c>
-      <c r="H181" t="n">
-        <v/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">180C </t>
+        </is>
       </c>
     </row>
     <row r="182">
@@ -6446,29 +6450,33 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Cô Ngân</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t xml:space="preserve">Nguyễn ngọc huyền </t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v/>
       </c>
       <c r="E182" t="n">
-        <v/>
-      </c>
-      <c r="F182" t="n">
-        <v/>
-      </c>
-      <c r="G182" t="n">
-        <v/>
-      </c>
-      <c r="H182" t="n">
-        <v/>
+        <v>1082839229928</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0326665812</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LynkMOk?mibextid=JRoKGi</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Địa chỉ chi tiết </t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -6478,31 +6486,31 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Nhi</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Nguyễn hữu quang</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v/>
       </c>
       <c r="E183" t="n">
-        <v/>
+        <v>1201023299</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>0387888961</t>
+          <t>0326665814</t>
         </is>
       </c>
       <c r="G183" t="n">
         <v/>
       </c>
-      <c r="H183" t="n">
-        <v/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">hà nội </t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -6512,23 +6520,23 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Cô Lệ</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
+          <t>Chị Vân</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v/>
       </c>
       <c r="E184" t="n">
         <v/>
       </c>
-      <c r="F184" t="n">
-        <v/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0385919853</t>
+        </is>
       </c>
       <c r="G184" t="n">
         <v/>
@@ -6544,11 +6552,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Cô mỹ</t>
+          <t>chị lam</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6576,11 +6584,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Mỹ Linh</t>
+          <t>Cô Ngân</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6608,11 +6616,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>em thuý</t>
+          <t>Nguyễn Thị Nhi</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6623,8 +6631,10 @@
       <c r="E187" t="n">
         <v/>
       </c>
-      <c r="F187" t="n">
-        <v/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0387888961</t>
+        </is>
       </c>
       <c r="G187" t="n">
         <v/>
@@ -6640,11 +6650,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Ngọc Bích</t>
+          <t>Cô Lệ</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -6672,11 +6682,11 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Sơn thị diệu</t>
+          <t>Cô mỹ</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6704,11 +6714,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Mỹ hoa</t>
+          <t>Mỹ Linh</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6736,16 +6746,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Chị Sang</t>
+          <t>em thuý</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6768,11 +6778,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Tú Trâm</t>
+          <t>Ngọc Bích</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6800,11 +6810,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>kiều nga</t>
+          <t>Sơn thị diệu</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6832,11 +6842,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>chị Dung</t>
+          <t>Mỹ hoa</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6847,10 +6857,8 @@
       <c r="E194" t="n">
         <v/>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>0373886477</t>
-        </is>
+      <c r="F194" t="n">
+        <v/>
       </c>
       <c r="G194" t="n">
         <v/>
@@ -6866,16 +6874,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>oanh thol</t>
+          <t>Chị Sang</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6898,16 +6906,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Em Phỉn</t>
+          <t>Tú Trâm</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6930,16 +6938,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>em Hông</t>
+          <t>kiều nga</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -6962,23 +6970,25 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cô phương</t>
+          <t>chị Dung</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E198" t="n">
         <v/>
       </c>
-      <c r="F198" t="n">
-        <v/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0373886477</t>
+        </is>
       </c>
       <c r="G198" t="n">
         <v/>
@@ -6994,16 +7004,16 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>em an</t>
+          <t>oanh thol</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -7026,11 +7036,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>BÌnh An</t>
+          <t>Em Phỉn</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7058,11 +7068,11 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Cô tú</t>
+          <t>em Hông</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7090,11 +7100,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cô Nga</t>
+          <t>Cô phương</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7122,11 +7132,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Em nga</t>
+          <t>em an</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7154,11 +7164,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Chị Ngoan</t>
+          <t>BÌnh An</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -7186,11 +7196,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Em Xuyên</t>
+          <t>Cô tú</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7218,11 +7228,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>em bang</t>
+          <t>Cô Nga</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7250,16 +7260,16 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>bé bảy</t>
+          <t>Em nga</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -7282,16 +7292,16 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>c yến</t>
+          <t>Chị Ngoan</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7314,16 +7324,16 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Cô Út</t>
+          <t>Em Xuyên</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7346,16 +7356,16 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Khải MX</t>
+          <t>em bang</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -7378,11 +7388,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>My</t>
+          <t>bé bảy</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7410,11 +7420,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Diễn My</t>
+          <t>c yến</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7442,11 +7452,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Cô Út</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7474,11 +7484,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>c phép khểnh</t>
+          <t>Khải MX</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7506,11 +7516,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>em Na</t>
+          <t>My</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7538,11 +7548,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>em Sinl</t>
+          <t>Diễn My</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7570,11 +7580,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>c the</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7602,11 +7612,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>hồng vy</t>
+          <t>c phép khểnh</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7634,11 +7644,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Lê thị kiều</t>
+          <t>em Na</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7666,11 +7676,11 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>em Sinl</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7698,11 +7708,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>mỹ ý</t>
+          <t>c the</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7730,11 +7740,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Chị lý</t>
+          <t>hồng vy</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7762,11 +7772,11 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>C thảo</t>
+          <t>Lê thị kiều</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7794,11 +7804,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Khách Cô Tiên</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7826,11 +7836,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>chị Giang</t>
+          <t>mỹ ý</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7858,11 +7868,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Chị Trinh</t>
+          <t>Chị lý</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7890,11 +7900,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bé ra </t>
+          <t>C thảo</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -7922,11 +7932,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thảo nguyên </t>
+          <t>Khách Cô Tiên</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7954,11 +7964,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Lý thị len</t>
+          <t>chị Giang</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7986,11 +7996,11 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Gia Linh</t>
+          <t>Chị Trinh</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8018,11 +8028,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em Vy </t>
+          <t xml:space="preserve">Bé ra </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8050,11 +8060,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Chị thê</t>
+          <t xml:space="preserve">Thảo nguyên </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8082,16 +8092,16 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>chị tuyết</t>
+          <t>Lý thị len</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -8114,16 +8124,16 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>nhựt như</t>
+          <t>Gia Linh</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -8146,16 +8156,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>bích liễu</t>
+          <t xml:space="preserve">Em Vy </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -8178,16 +8188,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Chị thê</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -8210,11 +8220,11 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Phan Thị Oanh Kiều</t>
+          <t>chị tuyết</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8225,10 +8235,8 @@
       <c r="E237" t="n">
         <v/>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>0329634779</t>
-        </is>
+      <c r="F237" t="n">
+        <v/>
       </c>
       <c r="G237" t="n">
         <v/>
@@ -8244,11 +8252,11 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>nhựt như</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8259,10 +8267,8 @@
       <c r="E238" t="n">
         <v/>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F238" t="n">
+        <v/>
       </c>
       <c r="G238" t="n">
         <v/>
@@ -8278,11 +8284,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị ngọc </t>
+          <t>bích liễu</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8310,11 +8316,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8342,11 +8348,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>Phan Thị Oanh Kiều</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8357,8 +8363,10 @@
       <c r="E241" t="n">
         <v/>
       </c>
-      <c r="F241" t="n">
-        <v/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0329634779</t>
+        </is>
       </c>
       <c r="G241" t="n">
         <v/>
@@ -8374,11 +8382,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8387,11 +8395,11 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>89197014107</v>
+        <v/>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>0822323252</t>
+          <t>TN-89</t>
         </is>
       </c>
       <c r="G242" t="n">
@@ -8408,11 +8416,11 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Ngọc trân</t>
+          <t xml:space="preserve">chị ngọc </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8440,11 +8448,11 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8472,11 +8480,11 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>khách dubai</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8504,11 +8512,11 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -8517,10 +8525,12 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v/>
-      </c>
-      <c r="F246" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G246" t="n">
         <v/>
@@ -8536,11 +8546,11 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Em nguyệt </t>
+          <t>Ngọc trân</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8568,11 +8578,11 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Anh thư</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8600,11 +8610,11 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Kim Duyên</t>
+          <t>khách dubai</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -8632,11 +8642,11 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -8664,11 +8674,11 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t xml:space="preserve">Em nguyệt </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8696,11 +8706,11 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Hồ Mỹ Diện</t>
+          <t>Anh thư</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8728,11 +8738,11 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>Kim Duyên</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8743,10 +8753,8 @@
       <c r="E253" t="n">
         <v/>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F253" t="n">
+        <v/>
       </c>
       <c r="G253" t="n">
         <v/>
@@ -8762,11 +8770,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Như ngọc</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8794,11 +8802,11 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>kim xuyến</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -8826,11 +8834,11 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Hồ Mỹ Diện</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8858,11 +8866,11 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>hồng quy</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -8873,8 +8881,10 @@
       <c r="E257" t="n">
         <v/>
       </c>
-      <c r="F257" t="n">
-        <v/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G257" t="n">
         <v/>
@@ -8890,11 +8900,11 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>Như ngọc</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8922,11 +8932,11 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>kim xuyến</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -8954,11 +8964,11 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -8969,10 +8979,8 @@
       <c r="E260" t="n">
         <v/>
       </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F260" t="n">
+        <v/>
       </c>
       <c r="G260" t="n">
         <v/>
@@ -8988,11 +8996,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>cẩm thu</t>
+          <t>hồng quy</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9020,11 +9028,11 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>yến linh</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9052,11 +9060,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>huyền trang</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9084,11 +9092,11 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>anh Hoàng</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9099,8 +9107,10 @@
       <c r="E264" t="n">
         <v/>
       </c>
-      <c r="F264" t="n">
-        <v/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G264" t="n">
         <v/>
@@ -9116,11 +9126,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>cẩm thu</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9148,11 +9158,11 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Khách mẫu</t>
+          <t>yến linh</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -9180,11 +9190,11 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>C kim</t>
+          <t>huyền trang</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9212,11 +9222,11 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>c mai</t>
+          <t>anh Hoàng</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9244,11 +9254,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9276,11 +9286,11 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>c Lý</t>
+          <t>Khách mẫu</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9308,11 +9318,11 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Thuý Kiều</t>
+          <t>C kim</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9340,11 +9350,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>c trang</t>
+          <t>c mai</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9372,11 +9382,11 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>bảo anh</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9404,11 +9414,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>c Lý</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -9419,10 +9429,8 @@
       <c r="E274" t="n">
         <v/>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F274" t="n">
+        <v/>
       </c>
       <c r="G274" t="n">
         <v/>
@@ -9438,11 +9446,11 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>chị Phương</t>
+          <t>Thuý Kiều</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9470,11 +9478,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve">chị Diễm </t>
+          <t>c trang</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -9502,11 +9510,11 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>bảo anh</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -9534,11 +9542,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Út bảy</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -9549,8 +9557,10 @@
       <c r="E278" t="n">
         <v/>
       </c>
-      <c r="F278" t="n">
-        <v/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G278" t="n">
         <v/>
@@ -9566,11 +9576,11 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Bé Tư</t>
+          <t>chị Phương</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -9598,11 +9608,11 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>bé Hai</t>
+          <t xml:space="preserve">chị Diễm </t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9630,11 +9640,11 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -9662,16 +9672,16 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Em Mai</t>
+          <t>Út bảy</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -9694,16 +9704,16 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>chị Lợi</t>
+          <t>Bé Tư</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -9726,16 +9736,16 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>chị Phường</t>
+          <t>bé Hai</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -9758,16 +9768,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>chị Tiền</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -9790,11 +9800,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Như Tây</t>
+          <t>Em Mai</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -9822,11 +9832,11 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>em Hợp</t>
+          <t>chị Lợi</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9854,11 +9864,11 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>em Hoa</t>
+          <t>chị Phường</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -9886,11 +9896,11 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Chị Xuyến</t>
+          <t>chị Tiền</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9918,11 +9928,11 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>em Nhi</t>
+          <t>Như Tây</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9950,11 +9960,11 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Chị Loan</t>
+          <t>em Hợp</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -9982,11 +9992,11 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Cô Trang</t>
+          <t>em Hoa</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10014,11 +10024,11 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Em Kim</t>
+          <t>Chị Xuyến</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10046,11 +10056,11 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Trúc Thanh</t>
+          <t>em Nhi</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10078,25 +10088,23 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>C.Phượng</t>
+          <t>Chị Loan</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E295" t="n">
         <v/>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>0363094364</t>
-        </is>
+      <c r="F295" t="n">
+        <v/>
       </c>
       <c r="G295" t="n">
         <v/>
@@ -10112,16 +10120,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>c.Phiên</t>
+          <t>Cô Trang</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -10144,16 +10152,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Đa Ra</t>
+          <t>Em Kim</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -10176,16 +10184,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>c.Lan</t>
+          <t>Trúc Thanh</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -10208,11 +10216,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>C.Trinh</t>
+          <t>C.Phượng</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10223,8 +10231,10 @@
       <c r="E299" t="n">
         <v/>
       </c>
-      <c r="F299" t="n">
-        <v/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>0363094364</t>
+        </is>
       </c>
       <c r="G299" t="n">
         <v/>
@@ -10240,11 +10250,11 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Lan Phương</t>
+          <t>c.Phiên</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10272,11 +10282,11 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>C.Hoành Ná</t>
+          <t>Đa Ra</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -10304,11 +10314,11 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Cô Nhung</t>
+          <t>c.Lan</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -10336,11 +10346,11 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Quan thị Hoa</t>
+          <t>C.Trinh</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -10368,11 +10378,11 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Chị Mai</t>
+          <t>Lan Phương</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -10400,16 +10410,16 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>C.Hoành Ná</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -10432,16 +10442,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Mỹ lan</t>
+          <t>Cô Nhung</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -10464,16 +10474,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Quan thị Hoa</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -10496,16 +10506,16 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Chị Mai</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -10528,11 +10538,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Kim Cương</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -10560,11 +10570,11 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Chú Hàn Quốc</t>
+          <t>Mỹ lan</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -10592,11 +10602,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thị Cúc </t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -10624,11 +10634,11 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10656,11 +10666,11 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anh tuyền </t>
+          <t>Kim Cương</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -10688,11 +10698,11 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>chị Hà</t>
+          <t>Chú Hàn Quốc</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10720,11 +10730,11 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>C Thuỳ Trang</t>
+          <t xml:space="preserve">Thị Cúc </t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -10752,11 +10762,11 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ngọc Tuyền </t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -10784,11 +10794,11 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Quỳnh Như</t>
+          <t xml:space="preserve">Anh tuyền </t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10816,11 +10826,11 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Em Thảo</t>
+          <t>chị Hà</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -10848,11 +10858,11 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Anh Toàn</t>
+          <t>C Thuỳ Trang</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -10880,11 +10890,11 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t xml:space="preserve">Ngọc Tuyền </t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -10912,30 +10922,158 @@
         </is>
       </c>
       <c r="B321" t="n">
+        <v>45</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v/>
+      </c>
+      <c r="F321" t="n">
+        <v/>
+      </c>
+      <c r="G321" t="n">
+        <v/>
+      </c>
+      <c r="H321" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>44</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Em Thảo</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v/>
+      </c>
+      <c r="F322" t="n">
+        <v/>
+      </c>
+      <c r="G322" t="n">
+        <v/>
+      </c>
+      <c r="H322" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>43</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Anh Toàn</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v/>
+      </c>
+      <c r="F323" t="n">
+        <v/>
+      </c>
+      <c r="G323" t="n">
+        <v/>
+      </c>
+      <c r="H323" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>42</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v/>
+      </c>
+      <c r="F324" t="n">
+        <v/>
+      </c>
+      <c r="G324" t="n">
+        <v/>
+      </c>
+      <c r="H324" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
         <v>41</v>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E321" t="n">
-        <v/>
-      </c>
-      <c r="F321" t="inlineStr">
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v/>
+      </c>
+      <c r="F325" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G321" t="n">
-        <v/>
-      </c>
-      <c r="H321" t="n">
+      <c r="G325" t="n">
+        <v/>
+      </c>
+      <c r="H325" t="n">
         <v/>
       </c>
     </row>
